--- a/projects/resstock_pnw_10_measures.xlsx
+++ b/projects/resstock_pnw_10_measures.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="444">
   <si>
     <t>type</t>
   </si>
@@ -1233,9 +1233,6 @@
     <t>R-10 Crawlspace Walls</t>
   </si>
   <si>
-    <t>R-5 Slab Perimeter</t>
-  </si>
-  <si>
     <t>EnergyStar Dishwashers</t>
   </si>
   <si>
@@ -1363,6 +1360,12 @@
   </si>
   <si>
     <t>Conditioned Floor Area (ft^2)</t>
+  </si>
+  <si>
+    <t>Insulation Unfinished Basement|Wall R-10</t>
+  </si>
+  <si>
+    <t>R-10 Slab Perimeter</t>
   </si>
 </sst>
 </file>
@@ -3592,11 +3595,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1544">
     <cellStyle name="20% - Accent1" xfId="1521" builtinId="30" customBuiltin="1"/>
@@ -5948,7 +5951,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6003,14 +6008,14 @@
       <c r="R1" s="30"/>
       <c r="S1" s="27"/>
       <c r="T1" s="27"/>
-      <c r="U1" s="52" t="s">
+      <c r="U1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -6426,8 +6431,8 @@
         <v>233</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="53" t="s">
-        <v>405</v>
+      <c r="I11" s="52" t="s">
+        <v>404</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -6465,8 +6470,8 @@
         <v>233</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="53" t="s">
-        <v>406</v>
+      <c r="I12" s="52" t="s">
+        <v>405</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -6544,7 +6549,7 @@
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -6654,8 +6659,8 @@
         <v>233</v>
       </c>
       <c r="H17" s="10"/>
-      <c r="I17" s="53" t="s">
-        <v>405</v>
+      <c r="I17" s="52" t="s">
+        <v>442</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -6693,8 +6698,8 @@
         <v>233</v>
       </c>
       <c r="H18" s="10"/>
-      <c r="I18" s="53" t="s">
-        <v>407</v>
+      <c r="I18" s="52" t="s">
+        <v>406</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -6772,7 +6777,7 @@
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -6882,8 +6887,8 @@
         <v>233</v>
       </c>
       <c r="H23" s="10"/>
-      <c r="I23" s="54" t="s">
-        <v>408</v>
+      <c r="I23" s="53" t="s">
+        <v>407</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -6921,8 +6926,8 @@
         <v>233</v>
       </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="54" t="s">
-        <v>409</v>
+      <c r="I24" s="53" t="s">
+        <v>408</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -7000,7 +7005,7 @@
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -7025,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="C27" s="48" t="s">
         <v>269</v>
@@ -7062,7 +7067,7 @@
       </c>
       <c r="D28" s="49" t="str">
         <f>"Run " &amp; B27</f>
-        <v>Run R-5 Slab Perimeter</v>
+        <v>Run R-10 Slab Perimeter</v>
       </c>
       <c r="E28" s="49" t="s">
         <v>266</v>
@@ -7111,7 +7116,7 @@
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -7150,7 +7155,7 @@
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
@@ -7188,7 +7193,9 @@
         <v>169</v>
       </c>
       <c r="H31" s="10"/>
-      <c r="I31" s="51"/>
+      <c r="I31" s="51">
+        <v>1.53</v>
+      </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
@@ -7226,7 +7233,7 @@
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
@@ -7604,7 +7611,7 @@
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
@@ -7642,7 +7649,9 @@
         <v>169</v>
       </c>
       <c r="H43" s="10"/>
-      <c r="I43" s="51"/>
+      <c r="I43" s="51">
+        <v>1.02</v>
+      </c>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
@@ -7791,7 +7800,7 @@
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
@@ -8017,7 +8026,7 @@
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
@@ -8157,7 +8166,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C57" s="48" t="s">
         <v>269</v>
@@ -8224,7 +8233,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="59" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>20</v>
@@ -8243,7 +8252,7 @@
       </c>
       <c r="H59" s="10"/>
       <c r="I59" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
@@ -8263,7 +8272,7 @@
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
     </row>
-    <row r="60" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>20</v>
@@ -8282,7 +8291,7 @@
       </c>
       <c r="H60" s="10"/>
       <c r="I60" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
@@ -8302,7 +8311,7 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
     </row>
-    <row r="61" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
         <v>20</v>
@@ -8339,7 +8348,7 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
     </row>
-    <row r="62" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>20</v>
@@ -8378,7 +8387,7 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
     </row>
-    <row r="63" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>20</v>
@@ -8397,7 +8406,7 @@
       </c>
       <c r="H63" s="10"/>
       <c r="I63" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
@@ -8417,7 +8426,7 @@
       <c r="Y63" s="15"/>
       <c r="Z63" s="15"/>
     </row>
-    <row r="64" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>20</v>
@@ -8436,7 +8445,7 @@
       </c>
       <c r="H64" s="10"/>
       <c r="I64" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
@@ -8456,7 +8465,7 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
     </row>
-    <row r="65" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>20</v>
@@ -8493,7 +8502,7 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>20</v>
@@ -8532,7 +8541,7 @@
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
     </row>
-    <row r="67" spans="1:26" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>20</v>
@@ -8551,7 +8560,7 @@
       </c>
       <c r="H67" s="10"/>
       <c r="I67" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
@@ -8571,14 +8580,14 @@
       <c r="Y67" s="15"/>
       <c r="Z67" s="15"/>
     </row>
-    <row r="68" spans="1:26" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E68" s="10" t="str">
         <f t="shared" ref="E68" si="10">LOWER(SUBSTITUTE(D68," ","_"))</f>
@@ -8590,7 +8599,7 @@
       </c>
       <c r="H68" s="10"/>
       <c r="I68" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
@@ -8610,7 +8619,7 @@
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
     </row>
-    <row r="69" spans="1:26" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>20</v>
@@ -8647,7 +8656,7 @@
       <c r="Y69" s="15"/>
       <c r="Z69" s="15"/>
     </row>
-    <row r="70" spans="1:26" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>20</v>
@@ -8686,14 +8695,14 @@
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
     </row>
-    <row r="71" spans="1:26" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E71" s="10" t="str">
         <f t="shared" ref="E71:E74" si="11">LOWER(SUBSTITUTE(D71," ","_"))</f>
@@ -8705,7 +8714,7 @@
       </c>
       <c r="H71" s="10"/>
       <c r="I71" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
@@ -8725,14 +8734,14 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
     </row>
-    <row r="72" spans="1:26" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E72" s="10" t="str">
         <f t="shared" si="11"/>
@@ -8744,7 +8753,7 @@
       </c>
       <c r="H72" s="10"/>
       <c r="I72" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
@@ -8764,14 +8773,14 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:26" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E73" s="10" t="str">
         <f t="shared" si="11"/>
@@ -8801,14 +8810,14 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
     </row>
-    <row r="74" spans="1:26" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E74" s="10" t="str">
         <f t="shared" si="11"/>
@@ -8845,7 +8854,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C75" s="48" t="s">
         <v>269</v>
@@ -8912,7 +8921,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="77" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>20</v>
@@ -8931,7 +8940,7 @@
       </c>
       <c r="H77" s="10"/>
       <c r="I77" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
@@ -8951,7 +8960,7 @@
       <c r="Y77" s="15"/>
       <c r="Z77" s="15"/>
     </row>
-    <row r="78" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>20</v>
@@ -8970,7 +8979,7 @@
       </c>
       <c r="H78" s="10"/>
       <c r="I78" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J78" s="10"/>
       <c r="K78" s="10"/>
@@ -8990,7 +8999,7 @@
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
     </row>
-    <row r="79" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>20</v>
@@ -9008,7 +9017,9 @@
         <v>169</v>
       </c>
       <c r="H79" s="10"/>
-      <c r="I79" s="51"/>
+      <c r="I79" s="51">
+        <v>959</v>
+      </c>
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
@@ -9027,7 +9038,7 @@
       <c r="Y79" s="15"/>
       <c r="Z79" s="15"/>
     </row>
-    <row r="80" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>20</v>
@@ -9046,7 +9057,7 @@
       </c>
       <c r="H80" s="10"/>
       <c r="I80" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
@@ -9066,7 +9077,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
     </row>
-    <row r="81" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>20</v>
@@ -9085,7 +9096,7 @@
       </c>
       <c r="H81" s="10"/>
       <c r="I81" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
@@ -9105,7 +9116,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
     </row>
-    <row r="82" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>20</v>
@@ -9124,7 +9135,7 @@
       </c>
       <c r="H82" s="10"/>
       <c r="I82" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
@@ -9144,7 +9155,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
     </row>
-    <row r="83" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>20</v>
@@ -9162,7 +9173,9 @@
         <v>169</v>
       </c>
       <c r="H83" s="10"/>
-      <c r="I83" s="51"/>
+      <c r="I83" s="51">
+        <v>959</v>
+      </c>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
@@ -9181,7 +9194,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
     </row>
-    <row r="84" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>20</v>
@@ -9200,7 +9213,7 @@
       </c>
       <c r="H84" s="10"/>
       <c r="I84" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
@@ -9220,7 +9233,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:26" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>20</v>
@@ -9239,7 +9252,7 @@
       </c>
       <c r="H85" s="10"/>
       <c r="I85" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
@@ -9259,14 +9272,14 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E86" s="10" t="str">
         <f t="shared" si="12"/>
@@ -9278,7 +9291,7 @@
       </c>
       <c r="H86" s="10"/>
       <c r="I86" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
@@ -9298,7 +9311,7 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
     </row>
-    <row r="87" spans="1:26" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>20</v>
@@ -9316,7 +9329,9 @@
         <v>169</v>
       </c>
       <c r="H87" s="10"/>
-      <c r="I87" s="51"/>
+      <c r="I87" s="51">
+        <v>959</v>
+      </c>
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
@@ -9335,7 +9350,7 @@
       <c r="Y87" s="15"/>
       <c r="Z87" s="15"/>
     </row>
-    <row r="88" spans="1:26" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>20</v>
@@ -9354,7 +9369,7 @@
       </c>
       <c r="H88" s="10"/>
       <c r="I88" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
@@ -9379,7 +9394,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C89" s="48" t="s">
         <v>269</v>
@@ -9446,7 +9461,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="91" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>20</v>
@@ -9465,7 +9480,7 @@
       </c>
       <c r="H91" s="10"/>
       <c r="I91" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
@@ -9485,7 +9500,7 @@
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
     </row>
-    <row r="92" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>20</v>
@@ -9504,7 +9519,7 @@
       </c>
       <c r="H92" s="10"/>
       <c r="I92" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
@@ -9524,7 +9539,7 @@
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
     </row>
-    <row r="93" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>20</v>
@@ -9542,7 +9557,9 @@
         <v>169</v>
       </c>
       <c r="H93" s="10"/>
-      <c r="I93" s="51"/>
+      <c r="I93" s="51">
+        <v>662</v>
+      </c>
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
       <c r="L93" s="10"/>
@@ -9561,7 +9578,7 @@
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
     </row>
-    <row r="94" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
         <v>20</v>
@@ -9580,7 +9597,7 @@
       </c>
       <c r="H94" s="10"/>
       <c r="I94" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
@@ -9600,7 +9617,7 @@
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
     </row>
-    <row r="95" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>20</v>
@@ -9619,7 +9636,7 @@
       </c>
       <c r="H95" s="10"/>
       <c r="I95" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J95" s="10"/>
       <c r="K95" s="10"/>
@@ -9639,7 +9656,7 @@
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
     </row>
-    <row r="96" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>20</v>
@@ -9658,7 +9675,7 @@
       </c>
       <c r="H96" s="10"/>
       <c r="I96" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J96" s="10"/>
       <c r="K96" s="10"/>
@@ -9678,7 +9695,7 @@
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
     </row>
-    <row r="97" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="s">
         <v>20</v>
@@ -9696,7 +9713,9 @@
         <v>169</v>
       </c>
       <c r="H97" s="10"/>
-      <c r="I97" s="51"/>
+      <c r="I97" s="51">
+        <v>662</v>
+      </c>
       <c r="J97" s="10"/>
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
@@ -9715,7 +9734,7 @@
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
     </row>
-    <row r="98" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>20</v>
@@ -9734,7 +9753,7 @@
       </c>
       <c r="H98" s="10"/>
       <c r="I98" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
@@ -9754,7 +9773,7 @@
       <c r="Y98" s="15"/>
       <c r="Z98" s="15"/>
     </row>
-    <row r="99" spans="1:26" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10" t="s">
         <v>20</v>
@@ -9773,7 +9792,7 @@
       </c>
       <c r="H99" s="10"/>
       <c r="I99" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
@@ -9793,14 +9812,14 @@
       <c r="Y99" s="15"/>
       <c r="Z99" s="15"/>
     </row>
-    <row r="100" spans="1:26" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E100" s="10" t="str">
         <f t="shared" si="13"/>
@@ -9812,7 +9831,7 @@
       </c>
       <c r="H100" s="10"/>
       <c r="I100" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
@@ -9832,7 +9851,7 @@
       <c r="Y100" s="15"/>
       <c r="Z100" s="15"/>
     </row>
-    <row r="101" spans="1:26" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>20</v>
@@ -9850,7 +9869,9 @@
         <v>169</v>
       </c>
       <c r="H101" s="10"/>
-      <c r="I101" s="51"/>
+      <c r="I101" s="51">
+        <v>662</v>
+      </c>
       <c r="J101" s="10"/>
       <c r="K101" s="10"/>
       <c r="L101" s="10"/>
@@ -9869,7 +9890,7 @@
       <c r="Y101" s="15"/>
       <c r="Z101" s="15"/>
     </row>
-    <row r="102" spans="1:26" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
         <v>20</v>
@@ -9888,7 +9909,7 @@
       </c>
       <c r="H102" s="10"/>
       <c r="I102" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
@@ -9913,7 +9934,7 @@
         <v>1</v>
       </c>
       <c r="B103" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C103" s="48" t="s">
         <v>269</v>
@@ -9999,7 +10020,7 @@
       </c>
       <c r="H105" s="10"/>
       <c r="I105" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
@@ -10019,7 +10040,7 @@
       <c r="Y105" s="15"/>
       <c r="Z105" s="15"/>
     </row>
-    <row r="106" spans="1:26" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>20</v>
@@ -10037,8 +10058,8 @@
         <v>233</v>
       </c>
       <c r="H106" s="10"/>
-      <c r="I106" s="54" t="s">
-        <v>428</v>
+      <c r="I106" s="53" t="s">
+        <v>427</v>
       </c>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
@@ -10077,7 +10098,7 @@
       </c>
       <c r="H107" s="10"/>
       <c r="I107" s="51">
-        <v>10</v>
+        <v>629.24</v>
       </c>
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
@@ -10115,8 +10136,8 @@
         <v>233</v>
       </c>
       <c r="H108" s="10"/>
-      <c r="I108" s="54" t="s">
-        <v>439</v>
+      <c r="I108" s="53" t="s">
+        <v>438</v>
       </c>
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
@@ -10266,7 +10287,7 @@
       </c>
       <c r="H112" s="10"/>
       <c r="I112" s="51">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="J112" s="10"/>
       <c r="K112" s="10"/>

--- a/projects/resstock_pnw_10_measures.xlsx
+++ b/projects/resstock_pnw_10_measures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="1125" windowWidth="20490" windowHeight="8235" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="4515" yWindow="1185" windowWidth="20490" windowHeight="8175" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -5951,9 +5951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7877,7 +7875,9 @@
         <v>169</v>
       </c>
       <c r="H49" s="10"/>
-      <c r="I49" s="51"/>
+      <c r="I49" s="51">
+        <v>10</v>
+      </c>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
@@ -8103,7 +8103,9 @@
         <v>169</v>
       </c>
       <c r="H55" s="10"/>
-      <c r="I55" s="51"/>
+      <c r="I55" s="51">
+        <v>10</v>
+      </c>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
@@ -8329,7 +8331,9 @@
         <v>169</v>
       </c>
       <c r="H61" s="10"/>
-      <c r="I61" s="51"/>
+      <c r="I61" s="51">
+        <v>13</v>
+      </c>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
@@ -8483,7 +8487,9 @@
         <v>169</v>
       </c>
       <c r="H65" s="10"/>
-      <c r="I65" s="51"/>
+      <c r="I65" s="51">
+        <v>13</v>
+      </c>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
@@ -8637,7 +8643,9 @@
         <v>169</v>
       </c>
       <c r="H69" s="10"/>
-      <c r="I69" s="51"/>
+      <c r="I69" s="51">
+        <v>13</v>
+      </c>
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
@@ -8791,7 +8799,9 @@
         <v>169</v>
       </c>
       <c r="H73" s="10"/>
-      <c r="I73" s="51"/>
+      <c r="I73" s="51">
+        <v>13</v>
+      </c>
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>

--- a/projects/resstock_pnw_10_measures.xlsx
+++ b/projects/resstock_pnw_10_measures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="1185" windowWidth="20490" windowHeight="8175" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="4515" yWindow="1185" windowWidth="20490" windowHeight="8175" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="448">
   <si>
     <t>type</t>
   </si>
@@ -1197,9 +1197,6 @@
     <t>Option 3 Cost 1 Multiplier</t>
   </si>
   <si>
-    <t>Upgrade Cost</t>
-  </si>
-  <si>
     <t>Number of Buildings Represented</t>
   </si>
   <si>
@@ -1366,6 +1363,21 @@
   </si>
   <si>
     <t>R-10 Slab Perimeter</t>
+  </si>
+  <si>
+    <t>Location City</t>
+  </si>
+  <si>
+    <t>Location State</t>
+  </si>
+  <si>
+    <t>Location Latitude</t>
+  </si>
+  <si>
+    <t>Location Longitude</t>
+  </si>
+  <si>
+    <t>Upgrade Cost USD</t>
   </si>
 </sst>
 </file>
@@ -5446,7 +5458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5951,7 +5963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6220,7 +6232,7 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E6" s="10" t="str">
         <f t="shared" ref="E6" si="0">LOWER(SUBSTITUTE(D6," ","_"))</f>
@@ -6344,7 +6356,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>269</v>
@@ -6430,7 +6442,7 @@
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -6469,7 +6481,7 @@
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -6547,7 +6559,7 @@
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -6572,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C15" s="48" t="s">
         <v>269</v>
@@ -6658,7 +6670,7 @@
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="52" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -6697,7 +6709,7 @@
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -6775,7 +6787,7 @@
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -6800,7 +6812,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C21" s="48" t="s">
         <v>269</v>
@@ -6886,7 +6898,7 @@
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="53" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -6925,7 +6937,7 @@
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="53" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -7003,7 +7015,7 @@
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -7028,7 +7040,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C27" s="48" t="s">
         <v>269</v>
@@ -7114,7 +7126,7 @@
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -7153,7 +7165,7 @@
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
@@ -7231,7 +7243,7 @@
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
@@ -7256,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C33" s="48" t="s">
         <v>269</v>
@@ -7484,7 +7496,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C39" s="48" t="s">
         <v>269</v>
@@ -7570,7 +7582,7 @@
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
@@ -7609,7 +7621,7 @@
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
@@ -7712,7 +7724,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C45" s="48" t="s">
         <v>269</v>
@@ -7798,7 +7810,7 @@
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
@@ -7940,7 +7952,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C51" s="48" t="s">
         <v>269</v>
@@ -8026,7 +8038,7 @@
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
@@ -8168,7 +8180,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C57" s="48" t="s">
         <v>269</v>
@@ -8254,7 +8266,7 @@
       </c>
       <c r="H59" s="10"/>
       <c r="I59" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
@@ -8293,7 +8305,7 @@
       </c>
       <c r="H60" s="10"/>
       <c r="I60" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
@@ -8410,7 +8422,7 @@
       </c>
       <c r="H63" s="10"/>
       <c r="I63" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
@@ -8449,7 +8461,7 @@
       </c>
       <c r="H64" s="10"/>
       <c r="I64" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
@@ -8566,7 +8578,7 @@
       </c>
       <c r="H67" s="10"/>
       <c r="I67" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
@@ -8593,7 +8605,7 @@
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E68" s="10" t="str">
         <f t="shared" ref="E68" si="10">LOWER(SUBSTITUTE(D68," ","_"))</f>
@@ -8605,7 +8617,7 @@
       </c>
       <c r="H68" s="10"/>
       <c r="I68" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
@@ -8710,7 +8722,7 @@
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E71" s="10" t="str">
         <f t="shared" ref="E71:E74" si="11">LOWER(SUBSTITUTE(D71," ","_"))</f>
@@ -8722,7 +8734,7 @@
       </c>
       <c r="H71" s="10"/>
       <c r="I71" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
@@ -8749,7 +8761,7 @@
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E72" s="10" t="str">
         <f t="shared" si="11"/>
@@ -8761,7 +8773,7 @@
       </c>
       <c r="H72" s="10"/>
       <c r="I72" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
@@ -8788,7 +8800,7 @@
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E73" s="10" t="str">
         <f t="shared" si="11"/>
@@ -8827,7 +8839,7 @@
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E74" s="10" t="str">
         <f t="shared" si="11"/>
@@ -8864,7 +8876,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="48" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C75" s="48" t="s">
         <v>269</v>
@@ -8950,7 +8962,7 @@
       </c>
       <c r="H77" s="10"/>
       <c r="I77" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
@@ -8989,7 +9001,7 @@
       </c>
       <c r="H78" s="10"/>
       <c r="I78" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J78" s="10"/>
       <c r="K78" s="10"/>
@@ -9067,7 +9079,7 @@
       </c>
       <c r="H80" s="10"/>
       <c r="I80" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
@@ -9106,7 +9118,7 @@
       </c>
       <c r="H81" s="10"/>
       <c r="I81" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
@@ -9145,7 +9157,7 @@
       </c>
       <c r="H82" s="10"/>
       <c r="I82" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
@@ -9223,7 +9235,7 @@
       </c>
       <c r="H84" s="10"/>
       <c r="I84" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
@@ -9262,7 +9274,7 @@
       </c>
       <c r="H85" s="10"/>
       <c r="I85" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
@@ -9289,7 +9301,7 @@
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E86" s="10" t="str">
         <f t="shared" si="12"/>
@@ -9301,7 +9313,7 @@
       </c>
       <c r="H86" s="10"/>
       <c r="I86" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
@@ -9379,7 +9391,7 @@
       </c>
       <c r="H88" s="10"/>
       <c r="I88" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
@@ -9404,7 +9416,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C89" s="48" t="s">
         <v>269</v>
@@ -9490,7 +9502,7 @@
       </c>
       <c r="H91" s="10"/>
       <c r="I91" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
@@ -9529,7 +9541,7 @@
       </c>
       <c r="H92" s="10"/>
       <c r="I92" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
@@ -9607,7 +9619,7 @@
       </c>
       <c r="H94" s="10"/>
       <c r="I94" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
@@ -9646,7 +9658,7 @@
       </c>
       <c r="H95" s="10"/>
       <c r="I95" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J95" s="10"/>
       <c r="K95" s="10"/>
@@ -9685,7 +9697,7 @@
       </c>
       <c r="H96" s="10"/>
       <c r="I96" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J96" s="10"/>
       <c r="K96" s="10"/>
@@ -9763,7 +9775,7 @@
       </c>
       <c r="H98" s="10"/>
       <c r="I98" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
@@ -9802,7 +9814,7 @@
       </c>
       <c r="H99" s="10"/>
       <c r="I99" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
@@ -9829,7 +9841,7 @@
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E100" s="10" t="str">
         <f t="shared" si="13"/>
@@ -9841,7 +9853,7 @@
       </c>
       <c r="H100" s="10"/>
       <c r="I100" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
@@ -9919,7 +9931,7 @@
       </c>
       <c r="H102" s="10"/>
       <c r="I102" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
@@ -9944,7 +9956,7 @@
         <v>1</v>
       </c>
       <c r="B103" s="48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C103" s="48" t="s">
         <v>269</v>
@@ -10030,7 +10042,7 @@
       </c>
       <c r="H105" s="10"/>
       <c r="I105" s="21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
@@ -10069,7 +10081,7 @@
       </c>
       <c r="H106" s="10"/>
       <c r="I106" s="53" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
@@ -10147,7 +10159,7 @@
       </c>
       <c r="H108" s="10"/>
       <c r="I108" s="53" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
@@ -10172,7 +10184,7 @@
         <v>1</v>
       </c>
       <c r="B109" s="48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C109" s="48" t="s">
         <v>269</v>
@@ -10476,11 +10488,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M133"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11066,14 +11078,14 @@
     </row>
     <row r="26" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
-        <v>387</v>
+        <v>447</v>
       </c>
       <c r="D26" s="14" t="str">
         <f>"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A26," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
-        <v>simulation_output_report.upgrade_cost</v>
+        <v>simulation_output_report.upgrade_cost_usd</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>244</v>
+        <v>342</v>
       </c>
       <c r="G26" s="14" t="b">
         <v>0</v>
@@ -11087,7 +11099,7 @@
     </row>
     <row r="27" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D27" s="14" t="str">
         <f>"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A27," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
@@ -11141,7 +11153,7 @@
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
       <c r="D29" s="44" t="str">
-        <f t="shared" ref="D29:D92" si="1">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A29," ","_"))</f>
+        <f t="shared" ref="D29:D96" si="1">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A29," ","_"))</f>
         <v>building_characteristics_report.location_cooling_region</v>
       </c>
       <c r="E29" s="44"/>
@@ -11192,13 +11204,13 @@
     </row>
     <row r="31" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>280</v>
+        <v>443</v>
       </c>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
       <c r="D31" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v>building_characteristics_report.vintage</v>
+        <f>"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A31," ","_"))</f>
+        <v>building_characteristics_report.location_city</v>
       </c>
       <c r="E31" s="44"/>
       <c r="F31" s="44" t="s">
@@ -11220,13 +11232,13 @@
     </row>
     <row r="32" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>281</v>
+        <v>444</v>
       </c>
       <c r="B32" s="44"/>
       <c r="C32" s="44"/>
       <c r="D32" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v>building_characteristics_report.heating_fuel</v>
+        <f>"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A32," ","_"))</f>
+        <v>building_characteristics_report.location_state</v>
       </c>
       <c r="E32" s="44"/>
       <c r="F32" s="44" t="s">
@@ -11248,17 +11260,17 @@
     </row>
     <row r="33" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>282</v>
+        <v>445</v>
       </c>
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
       <c r="D33" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v>building_characteristics_report.usage_level</v>
+        <f>"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A33," ","_"))</f>
+        <v>building_characteristics_report.location_latitude</v>
       </c>
       <c r="E33" s="44"/>
       <c r="F33" s="44" t="s">
-        <v>244</v>
+        <v>342</v>
       </c>
       <c r="G33" s="44" t="b">
         <v>0</v>
@@ -11276,17 +11288,17 @@
     </row>
     <row r="34" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>283</v>
+        <v>446</v>
       </c>
       <c r="B34" s="44"/>
       <c r="C34" s="44"/>
       <c r="D34" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v>building_characteristics_report.geometry_foundation_type</v>
+        <f>"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A34," ","_"))</f>
+        <v>building_characteristics_report.location_longitude</v>
       </c>
       <c r="E34" s="44"/>
       <c r="F34" s="44" t="s">
-        <v>244</v>
+        <v>342</v>
       </c>
       <c r="G34" s="44" t="b">
         <v>0</v>
@@ -11304,13 +11316,13 @@
     </row>
     <row r="35" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
       <c r="D35" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.geometry_heated_basement</v>
+        <v>building_characteristics_report.vintage</v>
       </c>
       <c r="E35" s="44"/>
       <c r="F35" s="44" t="s">
@@ -11332,13 +11344,13 @@
     </row>
     <row r="36" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B36" s="44"/>
       <c r="C36" s="44"/>
       <c r="D36" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.geometry_house_size</v>
+        <v>building_characteristics_report.heating_fuel</v>
       </c>
       <c r="E36" s="44"/>
       <c r="F36" s="44" t="s">
@@ -11360,13 +11372,13 @@
     </row>
     <row r="37" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B37" s="44"/>
       <c r="C37" s="44"/>
       <c r="D37" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.geometry_stories</v>
+        <v>building_characteristics_report.usage_level</v>
       </c>
       <c r="E37" s="44"/>
       <c r="F37" s="44" t="s">
@@ -11388,13 +11400,13 @@
     </row>
     <row r="38" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
       <c r="D38" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.geometry_garage</v>
+        <v>building_characteristics_report.geometry_foundation_type</v>
       </c>
       <c r="E38" s="44"/>
       <c r="F38" s="44" t="s">
@@ -11416,13 +11428,13 @@
     </row>
     <row r="39" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
       <c r="D39" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.occupants</v>
+        <v>building_characteristics_report.geometry_heated_basement</v>
       </c>
       <c r="E39" s="44"/>
       <c r="F39" s="44" t="s">
@@ -11444,13 +11456,13 @@
     </row>
     <row r="40" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
       <c r="D40" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.orientation</v>
+        <v>building_characteristics_report.geometry_house_size</v>
       </c>
       <c r="E40" s="44"/>
       <c r="F40" s="44" t="s">
@@ -11472,13 +11484,13 @@
     </row>
     <row r="41" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
       <c r="D41" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.eaves</v>
+        <v>building_characteristics_report.geometry_stories</v>
       </c>
       <c r="E41" s="44"/>
       <c r="F41" s="44" t="s">
@@ -11500,13 +11512,13 @@
     </row>
     <row r="42" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B42" s="44"/>
       <c r="C42" s="44"/>
       <c r="D42" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.overhangs</v>
+        <v>building_characteristics_report.geometry_garage</v>
       </c>
       <c r="E42" s="44"/>
       <c r="F42" s="44" t="s">
@@ -11528,12 +11540,15 @@
     </row>
     <row r="43" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
-        <v>290</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
       <c r="D43" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.door_area</v>
-      </c>
+        <v>building_characteristics_report.occupants</v>
+      </c>
+      <c r="E43" s="44"/>
       <c r="F43" s="44" t="s">
         <v>244</v>
       </c>
@@ -11546,15 +11561,22 @@
       <c r="I43" s="44" t="b">
         <v>0</v>
       </c>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
     </row>
     <row r="44" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
-        <v>291</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.window_areas</v>
-      </c>
+        <v>building_characteristics_report.orientation</v>
+      </c>
+      <c r="E44" s="44"/>
       <c r="F44" s="44" t="s">
         <v>244</v>
       </c>
@@ -11567,16 +11589,20 @@
       <c r="I44" s="44" t="b">
         <v>0</v>
       </c>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
     </row>
     <row r="45" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B45" s="44"/>
       <c r="C45" s="44"/>
       <c r="D45" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.neighbors</v>
+        <v>building_characteristics_report.eaves</v>
       </c>
       <c r="E45" s="44"/>
       <c r="F45" s="44" t="s">
@@ -11598,13 +11624,13 @@
     </row>
     <row r="46" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="B46" s="44"/>
       <c r="C46" s="44"/>
       <c r="D46" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_unfinished_attic</v>
+        <v>building_characteristics_report.overhangs</v>
       </c>
       <c r="E46" s="44"/>
       <c r="F46" s="44" t="s">
@@ -11626,15 +11652,12 @@
     </row>
     <row r="47" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
+        <v>290</v>
+      </c>
       <c r="D47" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_wall</v>
-      </c>
-      <c r="E47" s="44"/>
+        <v>building_characteristics_report.door_area</v>
+      </c>
       <c r="F47" s="44" t="s">
         <v>244</v>
       </c>
@@ -11647,22 +11670,15 @@
       <c r="I47" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
     </row>
     <row r="48" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
+        <v>291</v>
+      </c>
       <c r="D48" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_slab</v>
-      </c>
-      <c r="E48" s="44"/>
+        <v>building_characteristics_report.window_areas</v>
+      </c>
       <c r="F48" s="44" t="s">
         <v>244</v>
       </c>
@@ -11675,19 +11691,18 @@
       <c r="I48" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="44"/>
-    </row>
-    <row r="49" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
-        <v>295</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_crawlspace</v>
-      </c>
+        <v>building_characteristics_report.neighbors</v>
+      </c>
+      <c r="E49" s="44"/>
       <c r="F49" s="44" t="s">
         <v>244</v>
       </c>
@@ -11700,15 +11715,22 @@
       <c r="I49" s="44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+    </row>
+    <row r="50" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
-        <v>296</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
       <c r="D50" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_unfinished_basement</v>
-      </c>
+        <v>building_characteristics_report.insulation_unfinished_attic</v>
+      </c>
+      <c r="E50" s="44"/>
       <c r="F50" s="44" t="s">
         <v>244</v>
       </c>
@@ -11721,15 +11743,22 @@
       <c r="I50" s="44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+    </row>
+    <row r="51" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
-        <v>297</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
       <c r="D51" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_finished_basement</v>
-      </c>
+        <v>building_characteristics_report.insulation_wall</v>
+      </c>
+      <c r="E51" s="44"/>
       <c r="F51" s="44" t="s">
         <v>244</v>
       </c>
@@ -11742,15 +11771,22 @@
       <c r="I51" s="44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+    </row>
+    <row r="52" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
-        <v>298</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
       <c r="D52" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_interzonal_floor</v>
-      </c>
+        <v>building_characteristics_report.insulation_slab</v>
+      </c>
+      <c r="E52" s="44"/>
       <c r="F52" s="44" t="s">
         <v>244</v>
       </c>
@@ -11763,14 +11799,18 @@
       <c r="I52" s="44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+    </row>
+    <row r="53" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D53" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.uninsulated_surfaces</v>
+        <v>building_characteristics_report.insulation_crawlspace</v>
       </c>
       <c r="F53" s="44" t="s">
         <v>244</v>
@@ -11785,13 +11825,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D54" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.roof_sheathing</v>
+        <v>building_characteristics_report.insulation_unfinished_basement</v>
       </c>
       <c r="F54" s="44" t="s">
         <v>244</v>
@@ -11806,13 +11846,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D55" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.wall_sheathing</v>
+        <v>building_characteristics_report.insulation_finished_basement</v>
       </c>
       <c r="F55" s="44" t="s">
         <v>244</v>
@@ -11827,13 +11867,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D56" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.floor_sheathing</v>
+        <v>building_characteristics_report.insulation_interzonal_floor</v>
       </c>
       <c r="F56" s="44" t="s">
         <v>244</v>
@@ -11848,13 +11888,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D57" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.exterior_finish</v>
+        <v>building_characteristics_report.uninsulated_surfaces</v>
       </c>
       <c r="F57" s="44" t="s">
         <v>244</v>
@@ -11869,13 +11909,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D58" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.roof_material</v>
+        <v>building_characteristics_report.roof_sheathing</v>
       </c>
       <c r="F58" s="44" t="s">
         <v>244</v>
@@ -11890,13 +11930,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D59" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.floor_covering</v>
+        <v>building_characteristics_report.wall_sheathing</v>
       </c>
       <c r="F59" s="44" t="s">
         <v>244</v>
@@ -11911,13 +11951,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D60" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.thermal_mass_floor</v>
+        <v>building_characteristics_report.floor_sheathing</v>
       </c>
       <c r="F60" s="44" t="s">
         <v>244</v>
@@ -11932,13 +11972,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D61" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.thermal_mass_exterior_wall</v>
+        <v>building_characteristics_report.exterior_finish</v>
       </c>
       <c r="F61" s="44" t="s">
         <v>244</v>
@@ -11953,13 +11993,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D62" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.thermal_mass_partition_wall</v>
+        <v>building_characteristics_report.roof_material</v>
       </c>
       <c r="F62" s="44" t="s">
         <v>244</v>
@@ -11974,13 +12014,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D63" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.thermal_mass_ceiling</v>
+        <v>building_characteristics_report.floor_covering</v>
       </c>
       <c r="F63" s="44" t="s">
         <v>244</v>
@@ -11995,13 +12035,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="44" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D64" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.thermal_mass_furniture</v>
+        <v>building_characteristics_report.thermal_mass_floor</v>
       </c>
       <c r="F64" s="44" t="s">
         <v>244</v>
@@ -12018,11 +12058,11 @@
     </row>
     <row r="65" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D65" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.doors</v>
+        <v>building_characteristics_report.thermal_mass_exterior_wall</v>
       </c>
       <c r="F65" s="44" t="s">
         <v>244</v>
@@ -12039,11 +12079,11 @@
     </row>
     <row r="66" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="44" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="D66" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.windows</v>
+        <v>building_characteristics_report.thermal_mass_partition_wall</v>
       </c>
       <c r="F66" s="44" t="s">
         <v>244</v>
@@ -12060,11 +12100,11 @@
     </row>
     <row r="67" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="44" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D67" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.water_heater</v>
+        <v>building_characteristics_report.thermal_mass_ceiling</v>
       </c>
       <c r="F67" s="44" t="s">
         <v>244</v>
@@ -12081,11 +12121,11 @@
     </row>
     <row r="68" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D68" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hot_water_fixtures</v>
+        <v>building_characteristics_report.thermal_mass_furniture</v>
       </c>
       <c r="F68" s="44" t="s">
         <v>244</v>
@@ -12102,11 +12142,11 @@
     </row>
     <row r="69" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="D69" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hot_water_distribution</v>
+        <v>building_characteristics_report.doors</v>
       </c>
       <c r="F69" s="44" t="s">
         <v>244</v>
@@ -12123,11 +12163,11 @@
     </row>
     <row r="70" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="44" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="D70" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_is_combined</v>
+        <v>building_characteristics_report.windows</v>
       </c>
       <c r="F70" s="44" t="s">
         <v>244</v>
@@ -12144,11 +12184,11 @@
     </row>
     <row r="71" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="44" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D71" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_combined</v>
+        <v>building_characteristics_report.water_heater</v>
       </c>
       <c r="F71" s="44" t="s">
         <v>244</v>
@@ -12165,11 +12205,11 @@
     </row>
     <row r="72" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="44" t="s">
-        <v>371</v>
+        <v>313</v>
       </c>
       <c r="D72" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_heating_electricity</v>
+        <v>building_characteristics_report.hot_water_fixtures</v>
       </c>
       <c r="F72" s="44" t="s">
         <v>244</v>
@@ -12186,11 +12226,11 @@
     </row>
     <row r="73" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="44" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="D73" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_heating_fuel_oil</v>
+        <v>building_characteristics_report.hot_water_distribution</v>
       </c>
       <c r="F73" s="44" t="s">
         <v>244</v>
@@ -12207,11 +12247,11 @@
     </row>
     <row r="74" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="44" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
       <c r="D74" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_heating_natural_gas</v>
+        <v>building_characteristics_report.hvac_system_is_combined</v>
       </c>
       <c r="F74" s="44" t="s">
         <v>244</v>
@@ -12228,11 +12268,11 @@
     </row>
     <row r="75" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="44" t="s">
-        <v>374</v>
+        <v>315</v>
       </c>
       <c r="D75" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_heating_propane</v>
+        <v>building_characteristics_report.hvac_system_combined</v>
       </c>
       <c r="F75" s="44" t="s">
         <v>244</v>
@@ -12249,11 +12289,11 @@
     </row>
     <row r="76" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="44" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D76" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_heating_wood</v>
+        <v>building_characteristics_report.hvac_system_heating_electricity</v>
       </c>
       <c r="F76" s="44" t="s">
         <v>244</v>
@@ -12270,11 +12310,11 @@
     </row>
     <row r="77" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="44" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="D77" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_cooling</v>
+        <v>building_characteristics_report.hvac_system_heating_fuel_oil</v>
       </c>
       <c r="F77" s="44" t="s">
         <v>244</v>
@@ -12291,11 +12331,11 @@
     </row>
     <row r="78" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="s">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="D78" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.heating_setpoint</v>
+        <v>building_characteristics_report.hvac_system_heating_natural_gas</v>
       </c>
       <c r="F78" s="44" t="s">
         <v>244</v>
@@ -12312,11 +12352,11 @@
     </row>
     <row r="79" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="s">
-        <v>318</v>
+        <v>374</v>
       </c>
       <c r="D79" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.cooling_setpoint</v>
+        <v>building_characteristics_report.hvac_system_heating_propane</v>
       </c>
       <c r="F79" s="44" t="s">
         <v>244</v>
@@ -12333,11 +12373,11 @@
     </row>
     <row r="80" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D80" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.ceiling_fan</v>
+        <v>building_characteristics_report.hvac_system_heating_wood</v>
       </c>
       <c r="F80" s="44" t="s">
         <v>244</v>
@@ -12354,11 +12394,11 @@
     </row>
     <row r="81" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D81" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.refrigerator</v>
+        <v>building_characteristics_report.hvac_system_cooling</v>
       </c>
       <c r="F81" s="44" t="s">
         <v>244</v>
@@ -12375,11 +12415,11 @@
     </row>
     <row r="82" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D82" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.cooking_range</v>
+        <v>building_characteristics_report.heating_setpoint</v>
       </c>
       <c r="F82" s="44" t="s">
         <v>244</v>
@@ -12396,11 +12436,11 @@
     </row>
     <row r="83" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D83" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.dishwasher</v>
+        <v>building_characteristics_report.cooling_setpoint</v>
       </c>
       <c r="F83" s="44" t="s">
         <v>244</v>
@@ -12417,11 +12457,11 @@
     </row>
     <row r="84" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="s">
-        <v>322</v>
+        <v>377</v>
       </c>
       <c r="D84" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.clothes_washer</v>
+        <v>building_characteristics_report.ceiling_fan</v>
       </c>
       <c r="F84" s="44" t="s">
         <v>244</v>
@@ -12438,11 +12478,11 @@
     </row>
     <row r="85" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D85" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.clothes_dryer</v>
+        <v>building_characteristics_report.refrigerator</v>
       </c>
       <c r="F85" s="44" t="s">
         <v>244</v>
@@ -12459,11 +12499,11 @@
     </row>
     <row r="86" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="D86" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.lighting</v>
+        <v>building_characteristics_report.cooking_range</v>
       </c>
       <c r="F86" s="44" t="s">
         <v>244</v>
@@ -12480,11 +12520,11 @@
     </row>
     <row r="87" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="44" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D87" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.plug_loads</v>
+        <v>building_characteristics_report.dishwasher</v>
       </c>
       <c r="F87" s="44" t="s">
         <v>244</v>
@@ -12501,11 +12541,11 @@
     </row>
     <row r="88" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D88" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.misc_extra_refrigerator</v>
+        <v>building_characteristics_report.clothes_washer</v>
       </c>
       <c r="F88" s="44" t="s">
         <v>244</v>
@@ -12522,11 +12562,11 @@
     </row>
     <row r="89" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="44" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D89" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.misc_freezer</v>
+        <v>building_characteristics_report.clothes_dryer</v>
       </c>
       <c r="F89" s="44" t="s">
         <v>244</v>
@@ -12543,11 +12583,11 @@
     </row>
     <row r="90" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="44" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="D90" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.misc_gas_fireplace</v>
+        <v>building_characteristics_report.lighting</v>
       </c>
       <c r="F90" s="44" t="s">
         <v>244</v>
@@ -12564,11 +12604,11 @@
     </row>
     <row r="91" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="44" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D91" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.misc_gas_grill</v>
+        <v>building_characteristics_report.plug_loads</v>
       </c>
       <c r="F91" s="44" t="s">
         <v>244</v>
@@ -12585,11 +12625,11 @@
     </row>
     <row r="92" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="44" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D92" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.misc_gas_lighting</v>
+        <v>building_characteristics_report.misc_extra_refrigerator</v>
       </c>
       <c r="F92" s="44" t="s">
         <v>244</v>
@@ -12606,11 +12646,11 @@
     </row>
     <row r="93" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="44" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D93" s="44" t="str">
-        <f t="shared" ref="D93:D99" si="2">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A93," ","_"))</f>
-        <v>building_characteristics_report.misc_hot_tub_spa</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_freezer</v>
       </c>
       <c r="F93" s="44" t="s">
         <v>244</v>
@@ -12627,165 +12667,213 @@
     </row>
     <row r="94" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="D94" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_gas_fireplace</v>
+      </c>
+      <c r="F94" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="G94" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" s="44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="D95" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_gas_grill</v>
+      </c>
+      <c r="F95" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="G95" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" s="44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="D96" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_gas_lighting</v>
+      </c>
+      <c r="F96" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="G96" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" s="44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="D97" s="44" t="str">
+        <f t="shared" ref="D97:D103" si="2">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A97," ","_"))</f>
+        <v>building_characteristics_report.misc_hot_tub_spa</v>
+      </c>
+      <c r="F97" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="G97" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" s="44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="D94" s="44" t="str">
+      <c r="D98" s="44" t="str">
         <f t="shared" si="2"/>
         <v>building_characteristics_report.misc_pool</v>
       </c>
-      <c r="F94" s="44" t="s">
+      <c r="F98" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="G94" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" s="44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="44" t="s">
+      <c r="G98" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" s="44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="D95" s="44" t="str">
+      <c r="D99" s="44" t="str">
         <f t="shared" si="2"/>
         <v>building_characteristics_report.misc_well_pump</v>
       </c>
-      <c r="F95" s="44" t="s">
+      <c r="F99" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="G95" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" s="44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="44" t="s">
+      <c r="G99" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" s="44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="D96" s="44" t="str">
+      <c r="D100" s="44" t="str">
         <f t="shared" si="2"/>
         <v>building_characteristics_report.ducts</v>
       </c>
-      <c r="F96" s="44" t="s">
+      <c r="F100" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="G96" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" s="44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="44" t="s">
+      <c r="G100" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" s="44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="44" t="s">
         <v>334</v>
       </c>
-      <c r="D97" s="44" t="str">
+      <c r="D101" s="44" t="str">
         <f t="shared" si="2"/>
         <v>building_characteristics_report.infiltration</v>
       </c>
-      <c r="F97" s="44" t="s">
+      <c r="F101" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="G97" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" s="44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="44" t="s">
+      <c r="G101" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" s="44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="D98" s="44" t="str">
+      <c r="D102" s="44" t="str">
         <f t="shared" si="2"/>
         <v>building_characteristics_report.natural_ventilation</v>
       </c>
-      <c r="F98" s="44" t="s">
+      <c r="F102" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="G98" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" s="44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="44" t="s">
+      <c r="G102" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" s="44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="D99" s="44" t="str">
+      <c r="D103" s="44" t="str">
         <f t="shared" si="2"/>
         <v>building_characteristics_report.mechanical_ventilation</v>
       </c>
-      <c r="F99" s="44" t="s">
+      <c r="F103" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="G99" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" s="44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="15"/>
-      <c r="B100" s="21"/>
-      <c r="D100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-    </row>
-    <row r="101" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
-      <c r="B101" s="21"/>
-      <c r="D101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-    </row>
-    <row r="102" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="15"/>
-      <c r="B102" s="21"/>
-      <c r="D102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-    </row>
-    <row r="103" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
-      <c r="B103" s="21"/>
-      <c r="D103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
+      <c r="G103" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" s="44" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
@@ -13003,45 +13091,37 @@
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="15"/>
       <c r="B128" s="21"/>
-      <c r="C128" s="22"/>
       <c r="D128" s="15"/>
-      <c r="E128" s="22"/>
       <c r="F128" s="15"/>
       <c r="G128" s="15"/>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="B129" s="21"/>
-      <c r="C129" s="22"/>
       <c r="D129" s="15"/>
-      <c r="E129" s="22"/>
       <c r="F129" s="15"/>
       <c r="G129" s="15"/>
       <c r="H129" s="15"/>
       <c r="I129" s="15"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="15"/>
       <c r="B130" s="21"/>
-      <c r="C130" s="22"/>
       <c r="D130" s="15"/>
-      <c r="E130" s="22"/>
       <c r="F130" s="15"/>
       <c r="G130" s="15"/>
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
       <c r="B131" s="21"/>
-      <c r="C131" s="22"/>
       <c r="D131" s="15"/>
-      <c r="E131" s="22"/>
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
       <c r="H131" s="15"/>
@@ -13068,6 +13148,50 @@
       <c r="G133" s="15"/>
       <c r="H133" s="15"/>
       <c r="I133" s="15"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="15"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="15"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="15"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="22"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="15"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="22"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/projects/resstock_pnw_10_measures.xlsx
+++ b/projects/resstock_pnw_10_measures.xlsx
@@ -33,8 +33,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>shorowit</author>
+  </authors>
+  <commentList>
+    <comment ref="A19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>shorowit:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Can't currently do this upgrade due to https://github.com/NREL/OpenStudio-ResStock/issues/38</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="449">
   <si>
     <t>type</t>
   </si>
@@ -1203,9 +1237,6 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>Drill-and-Fill</t>
-  </si>
-  <si>
     <t>R-5 Wall Sheathing</t>
   </si>
   <si>
@@ -1215,30 +1246,9 @@
     <t>LEDs</t>
   </si>
   <si>
-    <t>Window Repl. (high-gain)</t>
-  </si>
-  <si>
-    <t>Window Repl. (low-gain)</t>
-  </si>
-  <si>
-    <t>R-10 Bsmt Walls (Finished)</t>
-  </si>
-  <si>
-    <t>R-10 Bsmt Walls (Unfinished)</t>
-  </si>
-  <si>
     <t>R-10 Crawlspace Walls</t>
   </si>
   <si>
-    <t>EnergyStar Dishwashers</t>
-  </si>
-  <si>
-    <t>EnergyStar Clothes Washers</t>
-  </si>
-  <si>
-    <t>EnergyStar Refrigerators</t>
-  </si>
-  <si>
     <t>Clothes Washer|EnergyStar, 100% Usage</t>
   </si>
   <si>
@@ -1260,131 +1270,158 @@
     <t>Insulation Crawlspace|Uninsulated, Unvented</t>
   </si>
   <si>
+    <t>Low-E Storm Windows</t>
+  </si>
+  <si>
+    <t>Option 4</t>
+  </si>
+  <si>
+    <t>Option 4 Cost 1 Value</t>
+  </si>
+  <si>
+    <t>Option 4 Cost 1 Multiplier</t>
+  </si>
+  <si>
+    <t>Windows|Low-E Storm on Single, Metal</t>
+  </si>
+  <si>
+    <t>Windows|Clear, Single, Metal</t>
+  </si>
+  <si>
+    <t>Option 3 Apply Logic</t>
+  </si>
+  <si>
+    <t>Option 4 Apply Logic</t>
+  </si>
+  <si>
+    <t>Windows|Low-E Storm on Single, Non-metal</t>
+  </si>
+  <si>
+    <t>Windows|Clear, Single, Non-metal</t>
+  </si>
+  <si>
+    <t>Windows|Low-E Storm on Double, Non-metal</t>
+  </si>
+  <si>
+    <t>Dishwasher|290 Rated kWh, 100% Usage</t>
+  </si>
+  <si>
+    <t>Refrigerator|EF 19.9</t>
+  </si>
+  <si>
+    <t>Refrigerator|EF 6.7 || Refrigerator|EF 10.2 || Refrigerator|EF 10.5 || Refrigerator|EF 15.9 || Refrigerator|EF 17.6</t>
+  </si>
+  <si>
+    <t>Clothes Washer|Standard, 100% Usage</t>
+  </si>
+  <si>
+    <t>Clothes Washer|EnergyStar, 80% Usage</t>
+  </si>
+  <si>
+    <t>Clothes Washer|Standard, 80% Usage</t>
+  </si>
+  <si>
+    <t>Clothes Washer|EnergyStar, 120% Usage</t>
+  </si>
+  <si>
+    <t>Clothes Washer|Standard, 120% Usage</t>
+  </si>
+  <si>
+    <t>Dishwasher|318 Rated kWh, 100% Usage</t>
+  </si>
+  <si>
+    <t>Dishwasher|290 Rated kWh, 80% Usage</t>
+  </si>
+  <si>
+    <t>Dishwasher|318 Rated kWh, 80% Usage</t>
+  </si>
+  <si>
+    <t>Dishwasher|290 Rated kWh, 120% Usage</t>
+  </si>
+  <si>
+    <t>Dishwasher|318 Rated kWh, 120% Usage</t>
+  </si>
+  <si>
+    <t>Fixed (1)</t>
+  </si>
+  <si>
+    <t>Below-Grade Total Wall Area (ft^2)</t>
+  </si>
+  <si>
+    <t>Below-Grade Conditioned Wall Area (ft^2)</t>
+  </si>
+  <si>
+    <t>Insulation Unfinished Basement|Wall R-10</t>
+  </si>
+  <si>
+    <t>Location City</t>
+  </si>
+  <si>
+    <t>Location State</t>
+  </si>
+  <si>
+    <t>Location Latitude</t>
+  </si>
+  <si>
+    <t>Location Longitude</t>
+  </si>
+  <si>
+    <t>Upgrade Cost USD</t>
+  </si>
+  <si>
+    <t>R-10 Basement Walls</t>
+  </si>
+  <si>
+    <t>R-13 Drill and Fill Walls</t>
+  </si>
+  <si>
+    <t>Double Pane Windows (high-gain)</t>
+  </si>
+  <si>
+    <t>Double Pane Windows (low-gain)</t>
+  </si>
+  <si>
+    <t>ENERGY STAR Dishwashers</t>
+  </si>
+  <si>
+    <t>ENERGY STAR Clothes Washers</t>
+  </si>
+  <si>
+    <t>ENERGY STAR Refrigerators</t>
+  </si>
+  <si>
+    <t>Option 2 Cost 2 Value</t>
+  </si>
+  <si>
+    <t>Option 2 Cost 2 Multiplier</t>
+  </si>
+  <si>
+    <t>Conditioned Foundation Slab Area (ft^2)</t>
+  </si>
+  <si>
+    <t>Windows|Clear, Double, Metal, Air</t>
+  </si>
+  <si>
+    <t>Windows|Clear, Double, Non-metal, Air</t>
+  </si>
+  <si>
+    <t>Windows|Low-E Storm on Double, Metal</t>
+  </si>
+  <si>
     <t>Windows|Low-E, Double, High-Gain</t>
   </si>
   <si>
     <t>Windows|Low-E, Double, Low-Gain</t>
   </si>
   <si>
-    <t>Low-E Storm Windows</t>
-  </si>
-  <si>
-    <t>Insulation Slab|2ft R10 Perimeter, R10 Gap</t>
-  </si>
-  <si>
-    <t>Insulation Slab|Uninsulated</t>
-  </si>
-  <si>
-    <t>Option 4</t>
-  </si>
-  <si>
-    <t>Option 4 Cost 1 Value</t>
-  </si>
-  <si>
-    <t>Option 4 Cost 1 Multiplier</t>
-  </si>
-  <si>
-    <t>Windows|Low-E Storm on Single, Metal</t>
-  </si>
-  <si>
-    <t>Windows|Clear, Single, Metal</t>
-  </si>
-  <si>
-    <t>Option 3 Apply Logic</t>
-  </si>
-  <si>
-    <t>Option 4 Apply Logic</t>
-  </si>
-  <si>
-    <t>Windows|Low-E Storm on Single, Non-metal</t>
-  </si>
-  <si>
-    <t>Windows|Clear, Single, Non-metal</t>
-  </si>
-  <si>
-    <t>Windows|Low-E Storm on Double Metal</t>
-  </si>
-  <si>
-    <t>Windows|Low-E Storm on Double, Non-metal</t>
-  </si>
-  <si>
-    <t>Dishwasher|290 Rated kWh, 100% Usage</t>
-  </si>
-  <si>
-    <t>Refrigerator|EF 19.9</t>
-  </si>
-  <si>
-    <t>Refrigerator|EF 6.7 || Refrigerator|EF 10.2 || Refrigerator|EF 10.5 || Refrigerator|EF 15.9 || Refrigerator|EF 17.6</t>
-  </si>
-  <si>
-    <t>Clothes Washer|Standard, 100% Usage</t>
-  </si>
-  <si>
-    <t>Clothes Washer|EnergyStar, 80% Usage</t>
-  </si>
-  <si>
-    <t>Clothes Washer|Standard, 80% Usage</t>
-  </si>
-  <si>
-    <t>Clothes Washer|EnergyStar, 120% Usage</t>
-  </si>
-  <si>
-    <t>Clothes Washer|Standard, 120% Usage</t>
-  </si>
-  <si>
-    <t>Dishwasher|318 Rated kWh, 100% Usage</t>
-  </si>
-  <si>
-    <t>Dishwasher|290 Rated kWh, 80% Usage</t>
-  </si>
-  <si>
-    <t>Dishwasher|318 Rated kWh, 80% Usage</t>
-  </si>
-  <si>
-    <t>Dishwasher|290 Rated kWh, 120% Usage</t>
-  </si>
-  <si>
-    <t>Dishwasher|318 Rated kWh, 120% Usage</t>
-  </si>
-  <si>
-    <t>Fixed (1)</t>
-  </si>
-  <si>
-    <t>Below-Grade Total Wall Area (ft^2)</t>
-  </si>
-  <si>
-    <t>Below-Grade Conditioned Wall Area (ft^2)</t>
-  </si>
-  <si>
-    <t>Conditioned Floor Area (ft^2)</t>
-  </si>
-  <si>
-    <t>Insulation Unfinished Basement|Wall R-10</t>
-  </si>
-  <si>
-    <t>R-10 Slab Perimeter</t>
-  </si>
-  <si>
-    <t>Location City</t>
-  </si>
-  <si>
-    <t>Location State</t>
-  </si>
-  <si>
-    <t>Location Latitude</t>
-  </si>
-  <si>
-    <t>Location Longitude</t>
-  </si>
-  <si>
-    <t>Upgrade Cost USD</t>
+    <t>Insulation Crawlspace|Uninsulated, Vented</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1580,6 +1617,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="45">
@@ -3506,7 +3556,7 @@
     <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3609,6 +3659,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5960,8 +6016,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z114"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -6018,14 +6074,14 @@
       <c r="R1" s="30"/>
       <c r="S1" s="27"/>
       <c r="T1" s="27"/>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -6356,7 +6412,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>269</v>
@@ -6393,7 +6449,7 @@
       </c>
       <c r="D10" s="49" t="str">
         <f>"Run " &amp; B9</f>
-        <v>Run R-10 Bsmt Walls (Finished)</v>
+        <v>Run R-10 Basement Walls</v>
       </c>
       <c r="E10" s="49" t="s">
         <v>266</v>
@@ -6442,7 +6498,7 @@
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="52" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -6481,7 +6537,7 @@
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="52" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -6519,7 +6575,7 @@
         <v>169</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="51">
+      <c r="I13" s="54">
         <v>3.54</v>
       </c>
       <c r="J13" s="10"/>
@@ -6559,7 +6615,7 @@
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -6579,77 +6635,83 @@
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>396</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-    </row>
-    <row r="16" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" s="49" t="str">
-        <f>"Run " &amp; B15</f>
-        <v>Run R-10 Bsmt Walls (Unfinished)</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="I16" s="49">
-        <v>1</v>
-      </c>
-      <c r="K16" s="49">
-        <v>0</v>
-      </c>
-      <c r="L16" s="49">
-        <v>1</v>
-      </c>
-      <c r="M16" s="49">
-        <v>1</v>
-      </c>
-      <c r="N16" s="49">
-        <v>1</v>
-      </c>
-      <c r="P16" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="R16" s="49" t="s">
-        <v>271</v>
-      </c>
+    <row r="15" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="E15" s="10" t="str">
+        <f t="shared" ref="E15:E18" si="2">LOWER(SUBSTITUTE(D15," ","_"))</f>
+        <v>option_2</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="52" t="s">
+        <v>427</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+    </row>
+    <row r="16" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>option_2_apply_logic</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="52" t="s">
+        <v>397</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
     </row>
     <row r="17" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
@@ -6658,19 +6720,19 @@
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="E17" s="10" t="str">
-        <f t="shared" ref="E17:E20" si="2">LOWER(SUBSTITUTE(D17," ","_"))</f>
-        <v>option_1</v>
+        <f t="shared" si="2"/>
+        <v>option_2_cost_1_value</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H17" s="10"/>
-      <c r="I17" s="52" t="s">
-        <v>441</v>
+      <c r="I17" s="54">
+        <v>3.14</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -6697,19 +6759,19 @@
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="E18" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>option_1_apply_logic</v>
+        <v>option_2_cost_1_multiplier</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
         <v>233</v>
       </c>
       <c r="H18" s="10"/>
-      <c r="I18" s="52" t="s">
-        <v>405</v>
+      <c r="I18" s="10" t="s">
+        <v>425</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -6729,155 +6791,155 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10" t="s">
+    <row r="19" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+    </row>
+    <row r="20" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="49" t="str">
+        <f>"Run " &amp; B19</f>
+        <v>Run R-10 Crawlspace Walls</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="I20" s="49">
+        <v>1</v>
+      </c>
+      <c r="K20" s="49">
+        <v>0</v>
+      </c>
+      <c r="L20" s="49">
+        <v>1</v>
+      </c>
+      <c r="M20" s="49">
+        <v>1</v>
+      </c>
+      <c r="N20" s="49">
+        <v>1</v>
+      </c>
+      <c r="P20" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="R20" s="49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="E19" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>option_1_cost_1_value</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="51">
-        <v>3.14</v>
-      </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-    </row>
-    <row r="20" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E21" s="10" t="str">
+        <f t="shared" ref="E21:E24" si="3">LOWER(SUBSTITUTE(D21," ","_"))</f>
+        <v>option_1</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+    </row>
+    <row r="22" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E20" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>option_1_cost_1_multiplier</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E22" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>option_1_apply_logic</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-    </row>
-    <row r="21" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-    </row>
-    <row r="22" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="D22" s="49" t="str">
-        <f>"Run " &amp; B21</f>
-        <v>Run R-10 Crawlspace Walls</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="I22" s="49">
-        <v>1</v>
-      </c>
-      <c r="K22" s="49">
-        <v>0</v>
-      </c>
-      <c r="L22" s="49">
-        <v>1</v>
-      </c>
-      <c r="M22" s="49">
-        <v>1</v>
-      </c>
-      <c r="N22" s="49">
-        <v>1</v>
-      </c>
-      <c r="P22" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="R22" s="49" t="s">
-        <v>271</v>
-      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="53" t="s">
+        <v>399</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
     </row>
     <row r="23" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
@@ -6886,19 +6948,19 @@
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="E23" s="10" t="str">
-        <f t="shared" ref="E23:E26" si="3">LOWER(SUBSTITUTE(D23," ","_"))</f>
-        <v>option_1</v>
+        <f t="shared" si="3"/>
+        <v>option_1_cost_1_value</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H23" s="10"/>
-      <c r="I23" s="53" t="s">
-        <v>406</v>
+      <c r="I23" s="54">
+        <v>1.73</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -6925,19 +6987,19 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="E24" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>option_1_apply_logic</v>
+        <v>option_1_cost_1_multiplier</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
         <v>233</v>
       </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="53" t="s">
-        <v>407</v>
+      <c r="I24" s="10" t="s">
+        <v>425</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -6957,26 +7019,26 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="E25" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>option_1_cost_1_value</v>
+        <f t="shared" ref="E25:E28" si="4">LOWER(SUBSTITUTE(D25," ","_"))</f>
+        <v>option_2</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="H25" s="10"/>
-      <c r="I25" s="51">
-        <v>1.73</v>
+      <c r="I25" s="53" t="s">
+        <v>398</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -6996,26 +7058,26 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E26" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>option_1_cost_1_multiplier</v>
+        <f t="shared" si="4"/>
+        <v>option_2_apply_logic</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10" t="s">
         <v>233</v>
       </c>
       <c r="H26" s="10"/>
-      <c r="I26" s="10" t="s">
-        <v>438</v>
+      <c r="I26" s="53" t="s">
+        <v>448</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -7035,98 +7097,104 @@
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
     </row>
-    <row r="27" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>442</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-    </row>
-    <row r="28" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="D28" s="49" t="str">
-        <f>"Run " &amp; B27</f>
-        <v>Run R-10 Slab Perimeter</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="I28" s="49">
-        <v>1</v>
-      </c>
-      <c r="K28" s="49">
-        <v>0</v>
-      </c>
-      <c r="L28" s="49">
-        <v>1</v>
-      </c>
-      <c r="M28" s="49">
-        <v>1</v>
-      </c>
-      <c r="N28" s="49">
-        <v>1</v>
-      </c>
-      <c r="P28" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="R28" s="49" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E27" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>option_2_cost_1_value</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="54">
+        <v>1.73</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+    </row>
+    <row r="28" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="E28" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>option_2_cost_1_multiplier</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+    </row>
+    <row r="29" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="E29" s="10" t="str">
-        <f t="shared" ref="E29:E32" si="4">LOWER(SUBSTITUTE(D29," ","_"))</f>
-        <v>option_1</v>
+        <f t="shared" ref="E29:E30" si="5">LOWER(SUBSTITUTE(D29," ","_"))</f>
+        <v>option_2_cost_2_value</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H29" s="10"/>
-      <c r="I29" s="10" t="s">
-        <v>411</v>
+      <c r="I29" s="54">
+        <v>0.84</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -7146,18 +7214,18 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10" t="s">
-        <v>365</v>
+        <v>441</v>
       </c>
       <c r="E30" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>option_1_apply_logic</v>
+        <f t="shared" si="5"/>
+        <v>option_2_cost_2_multiplier</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
@@ -7165,7 +7233,7 @@
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
@@ -7185,155 +7253,155 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10" t="s">
+    <row r="31" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+    </row>
+    <row r="32" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" s="49" t="str">
+        <f>"Run " &amp; B31</f>
+        <v>Run R-13 Drill and Fill Walls</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="I32" s="49">
+        <v>1</v>
+      </c>
+      <c r="K32" s="49">
+        <v>0</v>
+      </c>
+      <c r="L32" s="49">
+        <v>1</v>
+      </c>
+      <c r="M32" s="49">
+        <v>1</v>
+      </c>
+      <c r="N32" s="49">
+        <v>1</v>
+      </c>
+      <c r="P32" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="R32" s="49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="E31" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>option_1_cost_1_value</v>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="51">
-        <v>1.53</v>
-      </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-    </row>
-    <row r="32" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10" t="s">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E33" s="10" t="str">
+        <f t="shared" ref="E33:E36" si="6">LOWER(SUBSTITUTE(D33," ","_"))</f>
+        <v>option_1</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+    </row>
+    <row r="34" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E32" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>option_1_cost_1_multiplier</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E34" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>option_1_apply_logic</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-    </row>
-    <row r="33" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B33" s="48" t="s">
-        <v>389</v>
-      </c>
-      <c r="C33" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-    </row>
-    <row r="34" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="D34" s="49" t="str">
-        <f>"Run " &amp; B33</f>
-        <v>Run Drill-and-Fill</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="I34" s="49">
-        <v>1</v>
-      </c>
-      <c r="K34" s="49">
-        <v>0</v>
-      </c>
-      <c r="L34" s="49">
-        <v>1</v>
-      </c>
-      <c r="M34" s="49">
-        <v>1</v>
-      </c>
-      <c r="N34" s="49">
-        <v>1</v>
-      </c>
-      <c r="P34" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="R34" s="49" t="s">
-        <v>271</v>
-      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
     </row>
     <row r="35" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
@@ -7342,19 +7410,19 @@
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="E35" s="10" t="str">
-        <f t="shared" ref="E35:E38" si="5">LOWER(SUBSTITUTE(D35," ","_"))</f>
-        <v>option_1</v>
+        <f t="shared" si="6"/>
+        <v>option_1_cost_1_value</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H35" s="10"/>
-      <c r="I35" s="10" t="s">
-        <v>368</v>
+      <c r="I35" s="54">
+        <v>2.21</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
@@ -7381,11 +7449,11 @@
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="E36" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>option_1_apply_logic</v>
+        <f t="shared" si="6"/>
+        <v>option_1_cost_1_multiplier</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10" t="s">
@@ -7393,7 +7461,7 @@
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="10" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
@@ -7413,155 +7481,155 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10" t="s">
+    <row r="37" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+    </row>
+    <row r="38" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" s="49" t="str">
+        <f>"Run " &amp; B37</f>
+        <v>Run R-5 Wall Sheathing</v>
+      </c>
+      <c r="E38" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="I38" s="49">
+        <v>1</v>
+      </c>
+      <c r="K38" s="49">
+        <v>0</v>
+      </c>
+      <c r="L38" s="49">
+        <v>1</v>
+      </c>
+      <c r="M38" s="49">
+        <v>1</v>
+      </c>
+      <c r="N38" s="49">
+        <v>1</v>
+      </c>
+      <c r="P38" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="R38" s="49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="E37" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>option_1_cost_1_value</v>
-      </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="51">
-        <v>2.21</v>
-      </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="15"/>
-    </row>
-    <row r="38" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10" t="s">
+      <c r="C39" s="10"/>
+      <c r="D39" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E39" s="10" t="str">
+        <f>LOWER(SUBSTITUTE(D39," ","_"))</f>
+        <v>option_1</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+    </row>
+    <row r="40" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E38" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>option_1_cost_1_multiplier</v>
-      </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10" t="s">
+      <c r="C40" s="10"/>
+      <c r="D40" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E40" s="10" t="str">
+        <f t="shared" ref="E40:E42" si="7">LOWER(SUBSTITUTE(D40," ","_"))</f>
+        <v>option_1_apply_logic</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="15"/>
-    </row>
-    <row r="39" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="C39" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D39" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="48"/>
-      <c r="X39" s="48"/>
-    </row>
-    <row r="40" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="D40" s="49" t="str">
-        <f>"Run " &amp; B39</f>
-        <v>Run R-5 Wall Sheathing</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="G40" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="I40" s="49">
-        <v>1</v>
-      </c>
-      <c r="K40" s="49">
-        <v>0</v>
-      </c>
-      <c r="L40" s="49">
-        <v>1</v>
-      </c>
-      <c r="M40" s="49">
-        <v>1</v>
-      </c>
-      <c r="N40" s="49">
-        <v>1</v>
-      </c>
-      <c r="P40" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="R40" s="49" t="s">
-        <v>271</v>
-      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
     </row>
     <row r="41" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
@@ -7570,19 +7638,19 @@
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="E41" s="10" t="str">
-        <f>LOWER(SUBSTITUTE(D41," ","_"))</f>
-        <v>option_1</v>
+        <f t="shared" si="7"/>
+        <v>option_1_cost_1_value</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H41" s="10"/>
-      <c r="I41" s="10" t="s">
-        <v>391</v>
+      <c r="I41" s="54">
+        <v>1.73</v>
       </c>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
@@ -7609,11 +7677,11 @@
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="E42" s="10" t="str">
-        <f t="shared" ref="E42:E44" si="6">LOWER(SUBSTITUTE(D42," ","_"))</f>
-        <v>option_1_apply_logic</v>
+        <f t="shared" si="7"/>
+        <v>option_1_cost_1_multiplier</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10" t="s">
@@ -7621,7 +7689,7 @@
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="10" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
@@ -7641,155 +7709,155 @@
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
     </row>
-    <row r="43" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10" t="s">
+    <row r="43" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>435</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="48"/>
+      <c r="W43" s="48"/>
+      <c r="X43" s="48"/>
+    </row>
+    <row r="44" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" s="49" t="str">
+        <f>"Run " &amp; B43</f>
+        <v>Run Double Pane Windows (high-gain)</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="I44" s="49">
+        <v>1</v>
+      </c>
+      <c r="K44" s="49">
+        <v>0</v>
+      </c>
+      <c r="L44" s="49">
+        <v>1</v>
+      </c>
+      <c r="M44" s="49">
+        <v>1</v>
+      </c>
+      <c r="N44" s="49">
+        <v>1</v>
+      </c>
+      <c r="P44" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="R44" s="49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="E43" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>option_1_cost_1_value</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H43" s="10"/>
-      <c r="I43" s="51">
-        <v>1.02</v>
-      </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="15"/>
-    </row>
-    <row r="44" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10" t="s">
+      <c r="C45" s="10"/>
+      <c r="D45" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E45" s="10" t="str">
+        <f>LOWER(SUBSTITUTE(D45," ","_"))</f>
+        <v>option_1</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+    </row>
+    <row r="46" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E44" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>option_1_cost_1_multiplier</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10" t="s">
+      <c r="C46" s="10"/>
+      <c r="D46" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E46" s="10" t="str">
+        <f t="shared" ref="E46:E48" si="8">LOWER(SUBSTITUTE(D46," ","_"))</f>
+        <v>option_1_apply_logic</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="15"/>
-    </row>
-    <row r="45" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B45" s="48" t="s">
-        <v>393</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D45" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="48"/>
-      <c r="S45" s="48"/>
-      <c r="T45" s="48"/>
-      <c r="U45" s="48"/>
-      <c r="V45" s="48"/>
-      <c r="W45" s="48"/>
-      <c r="X45" s="48"/>
-    </row>
-    <row r="46" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="D46" s="49" t="str">
-        <f>"Run " &amp; B45</f>
-        <v>Run Window Repl. (high-gain)</v>
-      </c>
-      <c r="E46" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="G46" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="I46" s="49">
-        <v>1</v>
-      </c>
-      <c r="K46" s="49">
-        <v>0</v>
-      </c>
-      <c r="L46" s="49">
-        <v>1</v>
-      </c>
-      <c r="M46" s="49">
-        <v>1</v>
-      </c>
-      <c r="N46" s="49">
-        <v>1</v>
-      </c>
-      <c r="P46" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="R46" s="49" t="s">
-        <v>271</v>
-      </c>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
     </row>
     <row r="47" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
@@ -7798,19 +7866,19 @@
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="E47" s="10" t="str">
-        <f>LOWER(SUBSTITUTE(D47," ","_"))</f>
-        <v>option_1</v>
+        <f t="shared" si="8"/>
+        <v>option_1_cost_1_value</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H47" s="10"/>
-      <c r="I47" s="10" t="s">
-        <v>408</v>
+      <c r="I47" s="54">
+        <v>36</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
@@ -7837,11 +7905,11 @@
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="E48" s="10" t="str">
-        <f t="shared" ref="E48:E50" si="7">LOWER(SUBSTITUTE(D48," ","_"))</f>
-        <v>option_1_apply_logic</v>
+        <f t="shared" si="8"/>
+        <v>option_1_cost_1_multiplier</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10" t="s">
@@ -7849,7 +7917,7 @@
       </c>
       <c r="H48" s="10"/>
       <c r="I48" s="10" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -7869,155 +7937,155 @@
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
     </row>
-    <row r="49" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10" t="s">
+    <row r="49" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B49" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="E49" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="48"/>
+      <c r="U49" s="48"/>
+      <c r="V49" s="48"/>
+      <c r="W49" s="48"/>
+      <c r="X49" s="48"/>
+    </row>
+    <row r="50" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" s="49" t="str">
+        <f>"Run " &amp; B49</f>
+        <v>Run Double Pane Windows (low-gain)</v>
+      </c>
+      <c r="E50" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="G50" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="I50" s="49">
+        <v>1</v>
+      </c>
+      <c r="K50" s="49">
+        <v>0</v>
+      </c>
+      <c r="L50" s="49">
+        <v>1</v>
+      </c>
+      <c r="M50" s="49">
+        <v>1</v>
+      </c>
+      <c r="N50" s="49">
+        <v>1</v>
+      </c>
+      <c r="P50" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="R50" s="49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="E49" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>option_1_cost_1_value</v>
-      </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H49" s="10"/>
-      <c r="I49" s="51">
-        <v>10</v>
-      </c>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="15"/>
-    </row>
-    <row r="50" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10" t="s">
+      <c r="C51" s="10"/>
+      <c r="D51" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E51" s="10" t="str">
+        <f>LOWER(SUBSTITUTE(D51," ","_"))</f>
+        <v>option_1</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="15"/>
+    </row>
+    <row r="52" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E50" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>option_1_cost_1_multiplier</v>
-      </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10" t="s">
+      <c r="C52" s="10"/>
+      <c r="D52" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E52" s="10" t="str">
+        <f t="shared" ref="E52:E54" si="9">LOWER(SUBSTITUTE(D52," ","_"))</f>
+        <v>option_1_apply_logic</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="15"/>
-      <c r="Z50" s="15"/>
-    </row>
-    <row r="51" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B51" s="48" t="s">
-        <v>394</v>
-      </c>
-      <c r="C51" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D51" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="E51" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="48"/>
-      <c r="T51" s="48"/>
-      <c r="U51" s="48"/>
-      <c r="V51" s="48"/>
-      <c r="W51" s="48"/>
-      <c r="X51" s="48"/>
-    </row>
-    <row r="52" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="D52" s="49" t="str">
-        <f>"Run " &amp; B51</f>
-        <v>Run Window Repl. (low-gain)</v>
-      </c>
-      <c r="E52" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="G52" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="I52" s="49">
-        <v>1</v>
-      </c>
-      <c r="K52" s="49">
-        <v>0</v>
-      </c>
-      <c r="L52" s="49">
-        <v>1</v>
-      </c>
-      <c r="M52" s="49">
-        <v>1</v>
-      </c>
-      <c r="N52" s="49">
-        <v>1</v>
-      </c>
-      <c r="P52" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="R52" s="49" t="s">
-        <v>271</v>
-      </c>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
     </row>
     <row r="53" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
@@ -8026,19 +8094,19 @@
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="E53" s="10" t="str">
-        <f>LOWER(SUBSTITUTE(D53," ","_"))</f>
-        <v>option_1</v>
+        <f t="shared" si="9"/>
+        <v>option_1_cost_1_value</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H53" s="10"/>
-      <c r="I53" s="10" t="s">
-        <v>409</v>
+      <c r="I53" s="54">
+        <v>39</v>
       </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
@@ -8065,11 +8133,11 @@
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="E54" s="10" t="str">
-        <f t="shared" ref="E54:E56" si="8">LOWER(SUBSTITUTE(D54," ","_"))</f>
-        <v>option_1_apply_logic</v>
+        <f t="shared" si="9"/>
+        <v>option_1_cost_1_multiplier</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10" t="s">
@@ -8077,7 +8145,7 @@
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="10" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
@@ -8097,155 +8165,155 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
     </row>
-    <row r="55" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10" t="s">
+    <row r="55" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B55" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="C55" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="48"/>
+      <c r="U55" s="48"/>
+      <c r="V55" s="48"/>
+      <c r="W55" s="48"/>
+      <c r="X55" s="48"/>
+    </row>
+    <row r="56" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="D56" s="49" t="str">
+        <f>"Run " &amp; B55</f>
+        <v>Run Low-E Storm Windows</v>
+      </c>
+      <c r="E56" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="G56" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="I56" s="49">
+        <v>1</v>
+      </c>
+      <c r="K56" s="49">
+        <v>0</v>
+      </c>
+      <c r="L56" s="49">
+        <v>1</v>
+      </c>
+      <c r="M56" s="49">
+        <v>1</v>
+      </c>
+      <c r="N56" s="49">
+        <v>1</v>
+      </c>
+      <c r="P56" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="R56" s="49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="E55" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>option_1_cost_1_value</v>
-      </c>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H55" s="10"/>
-      <c r="I55" s="51">
-        <v>10</v>
-      </c>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="15"/>
-      <c r="Z55" s="15"/>
-    </row>
-    <row r="56" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10" t="s">
+      <c r="C57" s="10"/>
+      <c r="D57" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E57" s="10" t="str">
+        <f t="shared" ref="E57:E68" si="10">LOWER(SUBSTITUTE(D57," ","_"))</f>
+        <v>option_1</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="15"/>
+    </row>
+    <row r="58" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E56" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>option_1_cost_1_multiplier</v>
-      </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10" t="s">
+      <c r="C58" s="10"/>
+      <c r="D58" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E58" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>option_1_apply_logic</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="15"/>
-      <c r="Z56" s="15"/>
-    </row>
-    <row r="57" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B57" s="48" t="s">
-        <v>410</v>
-      </c>
-      <c r="C57" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D57" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="E57" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="48"/>
-      <c r="S57" s="48"/>
-      <c r="T57" s="48"/>
-      <c r="U57" s="48"/>
-      <c r="V57" s="48"/>
-      <c r="W57" s="48"/>
-      <c r="X57" s="48"/>
-    </row>
-    <row r="58" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="D58" s="49" t="str">
-        <f>"Run " &amp; B57</f>
-        <v>Run Low-E Storm Windows</v>
-      </c>
-      <c r="E58" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="G58" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="I58" s="49">
-        <v>1</v>
-      </c>
-      <c r="K58" s="49">
-        <v>0</v>
-      </c>
-      <c r="L58" s="49">
-        <v>1</v>
-      </c>
-      <c r="M58" s="49">
-        <v>1</v>
-      </c>
-      <c r="N58" s="49">
-        <v>1</v>
-      </c>
-      <c r="P58" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="R58" s="49" t="s">
-        <v>271</v>
-      </c>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="15"/>
+      <c r="Z58" s="15"/>
     </row>
     <row r="59" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
@@ -8254,19 +8322,19 @@
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="E59" s="10" t="str">
-        <f t="shared" ref="E59:E70" si="9">LOWER(SUBSTITUTE(D59," ","_"))</f>
-        <v>option_1</v>
+        <f t="shared" si="10"/>
+        <v>option_1_cost_1_value</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H59" s="10"/>
-      <c r="I59" s="10" t="s">
-        <v>416</v>
+      <c r="I59" s="54">
+        <v>13</v>
       </c>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
@@ -8293,11 +8361,11 @@
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="E60" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>option_1_apply_logic</v>
+        <f t="shared" si="10"/>
+        <v>option_1_cost_1_multiplier</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10" t="s">
@@ -8305,7 +8373,7 @@
       </c>
       <c r="H60" s="10"/>
       <c r="I60" s="10" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
@@ -8332,19 +8400,19 @@
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="E61" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>option_1_cost_1_value</v>
+        <f t="shared" si="10"/>
+        <v>option_2</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="H61" s="10"/>
-      <c r="I61" s="51">
-        <v>13</v>
+      <c r="I61" s="10" t="s">
+        <v>408</v>
       </c>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
@@ -8371,11 +8439,11 @@
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E62" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>option_1_cost_1_multiplier</v>
+        <f t="shared" si="10"/>
+        <v>option_2_apply_logic</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10" t="s">
@@ -8383,7 +8451,7 @@
       </c>
       <c r="H62" s="10"/>
       <c r="I62" s="10" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
@@ -8410,19 +8478,19 @@
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="E63" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>option_2</v>
+        <f t="shared" si="10"/>
+        <v>option_2_cost_1_value</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H63" s="10"/>
-      <c r="I63" s="10" t="s">
-        <v>420</v>
+      <c r="I63" s="54">
+        <v>13</v>
       </c>
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
@@ -8449,11 +8517,11 @@
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="E64" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>option_2_apply_logic</v>
+        <f t="shared" si="10"/>
+        <v>option_2_cost_1_multiplier</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10" t="s">
@@ -8461,7 +8529,7 @@
       </c>
       <c r="H64" s="10"/>
       <c r="I64" s="10" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
@@ -8481,26 +8549,26 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
     </row>
-    <row r="65" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="E65" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>option_2_cost_1_value</v>
+        <f t="shared" si="10"/>
+        <v>option_3</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="10" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="H65" s="10"/>
-      <c r="I65" s="51">
-        <v>13</v>
+      <c r="I65" s="10" t="s">
+        <v>445</v>
       </c>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
@@ -8520,18 +8588,18 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="E66" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>option_2_cost_1_multiplier</v>
+        <f t="shared" ref="E66" si="11">LOWER(SUBSTITUTE(D66," ","_"))</f>
+        <v>option_3_apply_logic</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10" t="s">
@@ -8539,7 +8607,7 @@
       </c>
       <c r="H66" s="10"/>
       <c r="I66" s="10" t="s">
-        <v>381</v>
+        <v>443</v>
       </c>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
@@ -8566,19 +8634,19 @@
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="E67" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>option_3</v>
+        <f t="shared" si="10"/>
+        <v>option_3_cost_1_value</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H67" s="10"/>
-      <c r="I67" s="10" t="s">
-        <v>422</v>
+      <c r="I67" s="54">
+        <v>13</v>
       </c>
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
@@ -8605,11 +8673,11 @@
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="E68" s="10" t="str">
-        <f t="shared" ref="E68" si="10">LOWER(SUBSTITUTE(D68," ","_"))</f>
-        <v>option_3_apply_logic</v>
+        <f t="shared" si="10"/>
+        <v>option_3_cost_1_multiplier</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10" t="s">
@@ -8617,7 +8685,7 @@
       </c>
       <c r="H68" s="10"/>
       <c r="I68" s="10" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
@@ -8644,19 +8712,19 @@
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="E69" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>option_3_cost_1_value</v>
+        <f t="shared" ref="E69:E72" si="12">LOWER(SUBSTITUTE(D69," ","_"))</f>
+        <v>option_4</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="H69" s="10"/>
-      <c r="I69" s="51">
-        <v>13</v>
+      <c r="I69" s="10" t="s">
+        <v>410</v>
       </c>
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
@@ -8683,11 +8751,11 @@
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="E70" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>option_3_cost_1_multiplier</v>
+        <f t="shared" si="12"/>
+        <v>option_4_apply_logic</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10" t="s">
@@ -8695,7 +8763,7 @@
       </c>
       <c r="H70" s="10"/>
       <c r="I70" s="10" t="s">
-        <v>381</v>
+        <v>444</v>
       </c>
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
@@ -8722,19 +8790,19 @@
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="E71" s="10" t="str">
-        <f t="shared" ref="E71:E74" si="11">LOWER(SUBSTITUTE(D71," ","_"))</f>
-        <v>option_4</v>
+        <f t="shared" si="12"/>
+        <v>option_4_cost_1_value</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H71" s="10"/>
-      <c r="I71" s="10" t="s">
-        <v>423</v>
+      <c r="I71" s="54">
+        <v>13</v>
       </c>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
@@ -8761,11 +8829,11 @@
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="E72" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>option_4_apply_logic</v>
+        <f t="shared" si="12"/>
+        <v>option_4_cost_1_multiplier</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10" t="s">
@@ -8773,7 +8841,7 @@
       </c>
       <c r="H72" s="10"/>
       <c r="I72" s="10" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
@@ -8793,155 +8861,155 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10" t="s">
+    <row r="73" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B73" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="C73" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D73" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="E73" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="48"/>
+      <c r="L73" s="48"/>
+      <c r="M73" s="48"/>
+      <c r="N73" s="48"/>
+      <c r="O73" s="48"/>
+      <c r="P73" s="48"/>
+      <c r="Q73" s="48"/>
+      <c r="R73" s="48"/>
+      <c r="S73" s="48"/>
+      <c r="T73" s="48"/>
+      <c r="U73" s="48"/>
+      <c r="V73" s="48"/>
+      <c r="W73" s="48"/>
+      <c r="X73" s="48"/>
+    </row>
+    <row r="74" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="D74" s="49" t="str">
+        <f>"Run " &amp; B73</f>
+        <v>Run ENERGY STAR Dishwashers</v>
+      </c>
+      <c r="E74" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="G74" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="I74" s="49">
+        <v>1</v>
+      </c>
+      <c r="K74" s="49">
+        <v>0</v>
+      </c>
+      <c r="L74" s="49">
+        <v>1</v>
+      </c>
+      <c r="M74" s="49">
+        <v>1</v>
+      </c>
+      <c r="N74" s="49">
+        <v>1</v>
+      </c>
+      <c r="P74" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="R74" s="49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="E73" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>option_4_cost_1_value</v>
-      </c>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H73" s="10"/>
-      <c r="I73" s="51">
-        <v>13</v>
-      </c>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="10"/>
-      <c r="S73" s="10"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="10"/>
-      <c r="V73" s="10"/>
-      <c r="W73" s="10"/>
-      <c r="X73" s="10"/>
-      <c r="Y73" s="15"/>
-      <c r="Z73" s="15"/>
-    </row>
-    <row r="74" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10" t="s">
+      <c r="C75" s="10"/>
+      <c r="D75" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E75" s="10" t="str">
+        <f t="shared" ref="E75:E86" si="13">LOWER(SUBSTITUTE(D75," ","_"))</f>
+        <v>option_1</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="15"/>
+      <c r="Z75" s="15"/>
+    </row>
+    <row r="76" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="E74" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>option_4_cost_1_multiplier</v>
-      </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10" t="s">
+      <c r="C76" s="10"/>
+      <c r="D76" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E76" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v>option_1_apply_logic</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
-      <c r="V74" s="10"/>
-      <c r="W74" s="10"/>
-      <c r="X74" s="10"/>
-      <c r="Y74" s="15"/>
-      <c r="Z74" s="15"/>
-    </row>
-    <row r="75" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B75" s="48" t="s">
-        <v>398</v>
-      </c>
-      <c r="C75" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D75" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="E75" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="48"/>
-      <c r="K75" s="48"/>
-      <c r="L75" s="48"/>
-      <c r="M75" s="48"/>
-      <c r="N75" s="48"/>
-      <c r="O75" s="48"/>
-      <c r="P75" s="48"/>
-      <c r="Q75" s="48"/>
-      <c r="R75" s="48"/>
-      <c r="S75" s="48"/>
-      <c r="T75" s="48"/>
-      <c r="U75" s="48"/>
-      <c r="V75" s="48"/>
-      <c r="W75" s="48"/>
-      <c r="X75" s="48"/>
-    </row>
-    <row r="76" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="D76" s="49" t="str">
-        <f>"Run " &amp; B75</f>
-        <v>Run EnergyStar Dishwashers</v>
-      </c>
-      <c r="E76" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="G76" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="I76" s="49">
-        <v>1</v>
-      </c>
-      <c r="K76" s="49">
-        <v>0</v>
-      </c>
-      <c r="L76" s="49">
-        <v>1</v>
-      </c>
-      <c r="M76" s="49">
-        <v>1</v>
-      </c>
-      <c r="N76" s="49">
-        <v>1</v>
-      </c>
-      <c r="P76" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="R76" s="49" t="s">
-        <v>271</v>
-      </c>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="15"/>
+      <c r="Z76" s="15"/>
     </row>
     <row r="77" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
@@ -8950,19 +9018,19 @@
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="E77" s="10" t="str">
-        <f t="shared" ref="E77:E88" si="12">LOWER(SUBSTITUTE(D77," ","_"))</f>
-        <v>option_1</v>
+        <f t="shared" si="13"/>
+        <v>option_1_cost_1_value</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H77" s="10"/>
-      <c r="I77" s="10" t="s">
-        <v>433</v>
+      <c r="I77" s="54">
+        <v>959</v>
       </c>
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
@@ -8989,11 +9057,11 @@
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="E78" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>option_1_apply_logic</v>
+        <f t="shared" si="13"/>
+        <v>option_1_cost_1_multiplier</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10" t="s">
@@ -9001,7 +9069,7 @@
       </c>
       <c r="H78" s="10"/>
       <c r="I78" s="10" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="J78" s="10"/>
       <c r="K78" s="10"/>
@@ -9028,19 +9096,19 @@
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="E79" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>option_1_cost_1_value</v>
+        <f t="shared" si="13"/>
+        <v>option_2</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="H79" s="10"/>
-      <c r="I79" s="51">
-        <v>959</v>
+      <c r="I79" s="10" t="s">
+        <v>411</v>
       </c>
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
@@ -9067,11 +9135,11 @@
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E80" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>option_1_cost_1_multiplier</v>
+        <f t="shared" si="13"/>
+        <v>option_2_apply_logic</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10" t="s">
@@ -9079,7 +9147,7 @@
       </c>
       <c r="H80" s="10"/>
       <c r="I80" s="10" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
@@ -9106,19 +9174,19 @@
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="10" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="E81" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>option_2</v>
+        <f t="shared" si="13"/>
+        <v>option_2_cost_1_value</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H81" s="10"/>
-      <c r="I81" s="10" t="s">
-        <v>424</v>
+      <c r="I81" s="54">
+        <v>959</v>
       </c>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
@@ -9145,11 +9213,11 @@
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="E82" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>option_2_apply_logic</v>
+        <f t="shared" si="13"/>
+        <v>option_2_cost_1_multiplier</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10" t="s">
@@ -9157,7 +9225,7 @@
       </c>
       <c r="H82" s="10"/>
       <c r="I82" s="10" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
@@ -9177,26 +9245,26 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
     </row>
-    <row r="83" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="10" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="E83" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>option_2_cost_1_value</v>
+        <f t="shared" si="13"/>
+        <v>option_3</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="H83" s="10"/>
-      <c r="I83" s="51">
-        <v>959</v>
+      <c r="I83" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
@@ -9216,18 +9284,18 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
     </row>
-    <row r="84" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="10" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="E84" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>option_2_cost_1_multiplier</v>
+        <f t="shared" si="13"/>
+        <v>option_3_apply_logic</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10" t="s">
@@ -9235,7 +9303,7 @@
       </c>
       <c r="H84" s="10"/>
       <c r="I84" s="10" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
@@ -9262,19 +9330,19 @@
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="10" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="E85" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>option_3</v>
+        <f t="shared" si="13"/>
+        <v>option_3_cost_1_value</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H85" s="10"/>
-      <c r="I85" s="10" t="s">
-        <v>435</v>
+      <c r="I85" s="54">
+        <v>959</v>
       </c>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
@@ -9301,11 +9369,11 @@
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="E86" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>option_3_apply_logic</v>
+        <f t="shared" si="13"/>
+        <v>option_3_cost_1_multiplier</v>
       </c>
       <c r="F86" s="10"/>
       <c r="G86" s="10" t="s">
@@ -9313,7 +9381,7 @@
       </c>
       <c r="H86" s="10"/>
       <c r="I86" s="10" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
@@ -9333,155 +9401,155 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
     </row>
-    <row r="87" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10" t="s">
+    <row r="87" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B87" s="48" t="s">
+        <v>438</v>
+      </c>
+      <c r="C87" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D87" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="E87" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="48"/>
+      <c r="L87" s="48"/>
+      <c r="M87" s="48"/>
+      <c r="N87" s="48"/>
+      <c r="O87" s="48"/>
+      <c r="P87" s="48"/>
+      <c r="Q87" s="48"/>
+      <c r="R87" s="48"/>
+      <c r="S87" s="48"/>
+      <c r="T87" s="48"/>
+      <c r="U87" s="48"/>
+      <c r="V87" s="48"/>
+      <c r="W87" s="48"/>
+      <c r="X87" s="48"/>
+    </row>
+    <row r="88" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B88" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="D88" s="49" t="str">
+        <f>"Run " &amp; B87</f>
+        <v>Run ENERGY STAR Clothes Washers</v>
+      </c>
+      <c r="E88" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="G88" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="I88" s="49">
+        <v>1</v>
+      </c>
+      <c r="K88" s="49">
+        <v>0</v>
+      </c>
+      <c r="L88" s="49">
+        <v>1</v>
+      </c>
+      <c r="M88" s="49">
+        <v>1</v>
+      </c>
+      <c r="N88" s="49">
+        <v>1</v>
+      </c>
+      <c r="P88" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="R88" s="49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="E87" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>option_3_cost_1_value</v>
-      </c>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H87" s="10"/>
-      <c r="I87" s="51">
-        <v>959</v>
-      </c>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
-      <c r="O87" s="10"/>
-      <c r="P87" s="10"/>
-      <c r="Q87" s="10"/>
-      <c r="R87" s="10"/>
-      <c r="S87" s="10"/>
-      <c r="T87" s="10"/>
-      <c r="U87" s="10"/>
-      <c r="V87" s="10"/>
-      <c r="W87" s="10"/>
-      <c r="X87" s="10"/>
-      <c r="Y87" s="15"/>
-      <c r="Z87" s="15"/>
-    </row>
-    <row r="88" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10" t="s">
+      <c r="C89" s="10"/>
+      <c r="D89" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E89" s="10" t="str">
+        <f t="shared" ref="E89:E100" si="14">LOWER(SUBSTITUTE(D89," ","_"))</f>
+        <v>option_1</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
+      <c r="S89" s="10"/>
+      <c r="T89" s="10"/>
+      <c r="U89" s="10"/>
+      <c r="V89" s="10"/>
+      <c r="W89" s="10"/>
+      <c r="X89" s="10"/>
+      <c r="Y89" s="15"/>
+      <c r="Z89" s="15"/>
+    </row>
+    <row r="90" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="E88" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>option_3_cost_1_multiplier</v>
-      </c>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10" t="s">
+      <c r="C90" s="10"/>
+      <c r="D90" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E90" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>option_1_apply_logic</v>
+      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
-      <c r="O88" s="10"/>
-      <c r="P88" s="10"/>
-      <c r="Q88" s="10"/>
-      <c r="R88" s="10"/>
-      <c r="S88" s="10"/>
-      <c r="T88" s="10"/>
-      <c r="U88" s="10"/>
-      <c r="V88" s="10"/>
-      <c r="W88" s="10"/>
-      <c r="X88" s="10"/>
-      <c r="Y88" s="15"/>
-      <c r="Z88" s="15"/>
-    </row>
-    <row r="89" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B89" s="48" t="s">
-        <v>399</v>
-      </c>
-      <c r="C89" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D89" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="E89" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F89" s="48"/>
-      <c r="G89" s="48"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="48"/>
-      <c r="J89" s="48"/>
-      <c r="K89" s="48"/>
-      <c r="L89" s="48"/>
-      <c r="M89" s="48"/>
-      <c r="N89" s="48"/>
-      <c r="O89" s="48"/>
-      <c r="P89" s="48"/>
-      <c r="Q89" s="48"/>
-      <c r="R89" s="48"/>
-      <c r="S89" s="48"/>
-      <c r="T89" s="48"/>
-      <c r="U89" s="48"/>
-      <c r="V89" s="48"/>
-      <c r="W89" s="48"/>
-      <c r="X89" s="48"/>
-    </row>
-    <row r="90" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B90" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="D90" s="49" t="str">
-        <f>"Run " &amp; B89</f>
-        <v>Run EnergyStar Clothes Washers</v>
-      </c>
-      <c r="E90" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="G90" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="I90" s="49">
-        <v>1</v>
-      </c>
-      <c r="K90" s="49">
-        <v>0</v>
-      </c>
-      <c r="L90" s="49">
-        <v>1</v>
-      </c>
-      <c r="M90" s="49">
-        <v>1</v>
-      </c>
-      <c r="N90" s="49">
-        <v>1</v>
-      </c>
-      <c r="P90" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="R90" s="49" t="s">
-        <v>271</v>
-      </c>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="10"/>
+      <c r="S90" s="10"/>
+      <c r="T90" s="10"/>
+      <c r="U90" s="10"/>
+      <c r="V90" s="10"/>
+      <c r="W90" s="10"/>
+      <c r="X90" s="10"/>
+      <c r="Y90" s="15"/>
+      <c r="Z90" s="15"/>
     </row>
     <row r="91" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
@@ -9490,19 +9558,19 @@
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="E91" s="10" t="str">
-        <f t="shared" ref="E91:E102" si="13">LOWER(SUBSTITUTE(D91," ","_"))</f>
-        <v>option_1</v>
+        <f t="shared" si="14"/>
+        <v>option_1_cost_1_value</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H91" s="10"/>
-      <c r="I91" s="10" t="s">
-        <v>428</v>
+      <c r="I91" s="54">
+        <v>662</v>
       </c>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
@@ -9529,11 +9597,11 @@
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="E92" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v>option_1_apply_logic</v>
+        <f t="shared" si="14"/>
+        <v>option_1_cost_1_multiplier</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="10" t="s">
@@ -9541,7 +9609,7 @@
       </c>
       <c r="H92" s="10"/>
       <c r="I92" s="10" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
@@ -9568,19 +9636,19 @@
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="10" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="E93" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v>option_1_cost_1_value</v>
+        <f t="shared" si="14"/>
+        <v>option_2</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="10" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="H93" s="10"/>
-      <c r="I93" s="51">
-        <v>662</v>
+      <c r="I93" s="10" t="s">
+        <v>393</v>
       </c>
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
@@ -9607,11 +9675,11 @@
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="10" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E94" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v>option_1_cost_1_multiplier</v>
+        <f t="shared" si="14"/>
+        <v>option_2_apply_logic</v>
       </c>
       <c r="F94" s="10"/>
       <c r="G94" s="10" t="s">
@@ -9619,7 +9687,7 @@
       </c>
       <c r="H94" s="10"/>
       <c r="I94" s="10" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
@@ -9646,19 +9714,19 @@
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="10" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="E95" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v>option_2</v>
+        <f t="shared" si="14"/>
+        <v>option_2_cost_1_value</v>
       </c>
       <c r="F95" s="10"/>
       <c r="G95" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H95" s="10"/>
-      <c r="I95" s="10" t="s">
-        <v>401</v>
+      <c r="I95" s="54">
+        <v>662</v>
       </c>
       <c r="J95" s="10"/>
       <c r="K95" s="10"/>
@@ -9685,11 +9753,11 @@
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="E96" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v>option_2_apply_logic</v>
+        <f t="shared" si="14"/>
+        <v>option_2_cost_1_multiplier</v>
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10" t="s">
@@ -9697,7 +9765,7 @@
       </c>
       <c r="H96" s="10"/>
       <c r="I96" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J96" s="10"/>
       <c r="K96" s="10"/>
@@ -9717,26 +9785,26 @@
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
     </row>
-    <row r="97" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="10" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="E97" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v>option_2_cost_1_value</v>
+        <f t="shared" si="14"/>
+        <v>option_3</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="H97" s="10"/>
-      <c r="I97" s="51">
-        <v>662</v>
+      <c r="I97" s="10" t="s">
+        <v>417</v>
       </c>
       <c r="J97" s="10"/>
       <c r="K97" s="10"/>
@@ -9756,18 +9824,18 @@
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
     </row>
-    <row r="98" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="10" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="E98" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v>option_2_cost_1_multiplier</v>
+        <f t="shared" si="14"/>
+        <v>option_3_apply_logic</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10" t="s">
@@ -9775,7 +9843,7 @@
       </c>
       <c r="H98" s="10"/>
       <c r="I98" s="10" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
@@ -9802,19 +9870,19 @@
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="10" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="E99" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v>option_3</v>
+        <f t="shared" si="14"/>
+        <v>option_3_cost_1_value</v>
       </c>
       <c r="F99" s="10"/>
       <c r="G99" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H99" s="10"/>
-      <c r="I99" s="10" t="s">
-        <v>430</v>
+      <c r="I99" s="54">
+        <v>662</v>
       </c>
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
@@ -9841,11 +9909,11 @@
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="E100" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v>option_3_apply_logic</v>
+        <f t="shared" si="14"/>
+        <v>option_3_cost_1_multiplier</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10" t="s">
@@ -9853,7 +9921,7 @@
       </c>
       <c r="H100" s="10"/>
       <c r="I100" s="10" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
@@ -9873,155 +9941,155 @@
       <c r="Y100" s="15"/>
       <c r="Z100" s="15"/>
     </row>
-    <row r="101" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10" t="s">
+    <row r="101" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B101" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="C101" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D101" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="E101" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="48"/>
+      <c r="J101" s="48"/>
+      <c r="K101" s="48"/>
+      <c r="L101" s="48"/>
+      <c r="M101" s="48"/>
+      <c r="N101" s="48"/>
+      <c r="O101" s="48"/>
+      <c r="P101" s="48"/>
+      <c r="Q101" s="48"/>
+      <c r="R101" s="48"/>
+      <c r="S101" s="48"/>
+      <c r="T101" s="48"/>
+      <c r="U101" s="48"/>
+      <c r="V101" s="48"/>
+      <c r="W101" s="48"/>
+      <c r="X101" s="48"/>
+    </row>
+    <row r="102" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B102" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="D102" s="49" t="str">
+        <f>"Run " &amp; B101</f>
+        <v>Run ENERGY STAR Refrigerators</v>
+      </c>
+      <c r="E102" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="G102" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="I102" s="49">
+        <v>1</v>
+      </c>
+      <c r="K102" s="49">
+        <v>0</v>
+      </c>
+      <c r="L102" s="49">
+        <v>1</v>
+      </c>
+      <c r="M102" s="49">
+        <v>1</v>
+      </c>
+      <c r="N102" s="49">
+        <v>1</v>
+      </c>
+      <c r="P102" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="R102" s="49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="E101" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v>option_3_cost_1_value</v>
-      </c>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H101" s="10"/>
-      <c r="I101" s="51">
-        <v>662</v>
-      </c>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10"/>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
-      <c r="O101" s="10"/>
-      <c r="P101" s="10"/>
-      <c r="Q101" s="10"/>
-      <c r="R101" s="10"/>
-      <c r="S101" s="10"/>
-      <c r="T101" s="10"/>
-      <c r="U101" s="10"/>
-      <c r="V101" s="10"/>
-      <c r="W101" s="10"/>
-      <c r="X101" s="10"/>
-      <c r="Y101" s="15"/>
-      <c r="Z101" s="15"/>
-    </row>
-    <row r="102" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10" t="s">
+      <c r="C103" s="10"/>
+      <c r="D103" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E103" s="10" t="str">
+        <f>LOWER(SUBSTITUTE(D103," ","_"))</f>
+        <v>option_1</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H103" s="10"/>
+      <c r="I103" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+      <c r="O103" s="10"/>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="10"/>
+      <c r="R103" s="10"/>
+      <c r="S103" s="10"/>
+      <c r="T103" s="10"/>
+      <c r="U103" s="10"/>
+      <c r="V103" s="10"/>
+      <c r="W103" s="10"/>
+      <c r="X103" s="10"/>
+      <c r="Y103" s="15"/>
+      <c r="Z103" s="15"/>
+    </row>
+    <row r="104" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="E102" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v>option_3_cost_1_multiplier</v>
-      </c>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10" t="s">
+      <c r="C104" s="10"/>
+      <c r="D104" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E104" s="10" t="str">
+        <f t="shared" ref="E104" si="15">LOWER(SUBSTITUTE(D104," ","_"))</f>
+        <v>option_1_apply_logic</v>
+      </c>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="10"/>
-      <c r="O102" s="10"/>
-      <c r="P102" s="10"/>
-      <c r="Q102" s="10"/>
-      <c r="R102" s="10"/>
-      <c r="S102" s="10"/>
-      <c r="T102" s="10"/>
-      <c r="U102" s="10"/>
-      <c r="V102" s="10"/>
-      <c r="W102" s="10"/>
-      <c r="X102" s="10"/>
-      <c r="Y102" s="15"/>
-      <c r="Z102" s="15"/>
-    </row>
-    <row r="103" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B103" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="C103" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D103" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="E103" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F103" s="48"/>
-      <c r="G103" s="48"/>
-      <c r="H103" s="48"/>
-      <c r="I103" s="48"/>
-      <c r="J103" s="48"/>
-      <c r="K103" s="48"/>
-      <c r="L103" s="48"/>
-      <c r="M103" s="48"/>
-      <c r="N103" s="48"/>
-      <c r="O103" s="48"/>
-      <c r="P103" s="48"/>
-      <c r="Q103" s="48"/>
-      <c r="R103" s="48"/>
-      <c r="S103" s="48"/>
-      <c r="T103" s="48"/>
-      <c r="U103" s="48"/>
-      <c r="V103" s="48"/>
-      <c r="W103" s="48"/>
-      <c r="X103" s="48"/>
-    </row>
-    <row r="104" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="D104" s="49" t="str">
-        <f>"Run " &amp; B103</f>
-        <v>Run EnergyStar Refrigerators</v>
-      </c>
-      <c r="E104" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="G104" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="I104" s="49">
-        <v>1</v>
-      </c>
-      <c r="K104" s="49">
-        <v>0</v>
-      </c>
-      <c r="L104" s="49">
-        <v>1</v>
-      </c>
-      <c r="M104" s="49">
-        <v>1</v>
-      </c>
-      <c r="N104" s="49">
-        <v>1</v>
-      </c>
-      <c r="P104" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="R104" s="49" t="s">
-        <v>271</v>
-      </c>
+      <c r="H104" s="10"/>
+      <c r="I104" s="53" t="s">
+        <v>413</v>
+      </c>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
+      <c r="O104" s="10"/>
+      <c r="P104" s="10"/>
+      <c r="Q104" s="10"/>
+      <c r="R104" s="10"/>
+      <c r="S104" s="10"/>
+      <c r="T104" s="10"/>
+      <c r="U104" s="10"/>
+      <c r="V104" s="10"/>
+      <c r="W104" s="10"/>
+      <c r="X104" s="10"/>
+      <c r="Y104" s="15"/>
+      <c r="Z104" s="15"/>
     </row>
     <row r="105" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
@@ -10030,19 +10098,19 @@
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="10" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="E105" s="10" t="str">
-        <f>LOWER(SUBSTITUTE(D105," ","_"))</f>
-        <v>option_1</v>
+        <f t="shared" ref="E105:E106" si="16">LOWER(SUBSTITUTE(D105," ","_"))</f>
+        <v>option_1_cost_1_value</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H105" s="10"/>
-      <c r="I105" s="21" t="s">
-        <v>425</v>
+      <c r="I105" s="54">
+        <v>670</v>
       </c>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
@@ -10062,18 +10130,18 @@
       <c r="Y105" s="15"/>
       <c r="Z105" s="15"/>
     </row>
-    <row r="106" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="E106" s="10" t="str">
-        <f t="shared" ref="E106" si="14">LOWER(SUBSTITUTE(D106," ","_"))</f>
-        <v>option_1_apply_logic</v>
+        <f t="shared" si="16"/>
+        <v>option_1_cost_1_multiplier</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="10" t="s">
@@ -10081,7 +10149,7 @@
       </c>
       <c r="H106" s="10"/>
       <c r="I106" s="53" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
@@ -10101,155 +10169,155 @@
       <c r="Y106" s="15"/>
       <c r="Z106" s="15"/>
     </row>
-    <row r="107" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10" t="s">
+    <row r="107" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B107" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="C107" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D107" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="E107" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F107" s="48"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="48"/>
+      <c r="J107" s="48"/>
+      <c r="K107" s="48"/>
+      <c r="L107" s="48"/>
+      <c r="M107" s="48"/>
+      <c r="N107" s="48"/>
+      <c r="O107" s="48"/>
+      <c r="P107" s="48"/>
+      <c r="Q107" s="48"/>
+      <c r="R107" s="48"/>
+      <c r="S107" s="48"/>
+      <c r="T107" s="48"/>
+      <c r="U107" s="48"/>
+      <c r="V107" s="48"/>
+      <c r="W107" s="48"/>
+      <c r="X107" s="48"/>
+    </row>
+    <row r="108" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B108" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="D108" s="49" t="str">
+        <f>"Run " &amp; B107</f>
+        <v>Run LEDs</v>
+      </c>
+      <c r="E108" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="G108" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="I108" s="49">
+        <v>1</v>
+      </c>
+      <c r="K108" s="49">
+        <v>0</v>
+      </c>
+      <c r="L108" s="49">
+        <v>1</v>
+      </c>
+      <c r="M108" s="49">
+        <v>1</v>
+      </c>
+      <c r="N108" s="49">
+        <v>1</v>
+      </c>
+      <c r="P108" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="R108" s="49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10" t="s">
+      <c r="C109" s="10"/>
+      <c r="D109" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E109" s="10" t="str">
+        <f>LOWER(SUBSTITUTE(D109," ","_"))</f>
+        <v>option_1</v>
+      </c>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
+      <c r="O109" s="10"/>
+      <c r="P109" s="10"/>
+      <c r="Q109" s="10"/>
+      <c r="R109" s="10"/>
+      <c r="S109" s="10"/>
+      <c r="T109" s="10"/>
+      <c r="U109" s="10"/>
+      <c r="V109" s="10"/>
+      <c r="W109" s="10"/>
+      <c r="X109" s="10"/>
+      <c r="Y109" s="15"/>
+      <c r="Z109" s="15"/>
+    </row>
+    <row r="110" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="E107" s="10" t="str">
-        <f t="shared" ref="E107:E108" si="15">LOWER(SUBSTITUTE(D107," ","_"))</f>
+      <c r="E110" s="10" t="str">
+        <f t="shared" ref="E110:E111" si="17">LOWER(SUBSTITUTE(D110," ","_"))</f>
         <v>option_1_cost_1_value</v>
       </c>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10" t="s">
+      <c r="F110" s="10"/>
+      <c r="G110" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="H107" s="10"/>
-      <c r="I107" s="51">
-        <v>629.24</v>
-      </c>
-      <c r="J107" s="10"/>
-      <c r="K107" s="10"/>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="10"/>
-      <c r="O107" s="10"/>
-      <c r="P107" s="10"/>
-      <c r="Q107" s="10"/>
-      <c r="R107" s="10"/>
-      <c r="S107" s="10"/>
-      <c r="T107" s="10"/>
-      <c r="U107" s="10"/>
-      <c r="V107" s="10"/>
-      <c r="W107" s="10"/>
-      <c r="X107" s="10"/>
-      <c r="Y107" s="15"/>
-      <c r="Z107" s="15"/>
-    </row>
-    <row r="108" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E108" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v>option_1_cost_1_multiplier</v>
-      </c>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H108" s="10"/>
-      <c r="I108" s="53" t="s">
-        <v>437</v>
-      </c>
-      <c r="J108" s="10"/>
-      <c r="K108" s="10"/>
-      <c r="L108" s="10"/>
-      <c r="M108" s="10"/>
-      <c r="N108" s="10"/>
-      <c r="O108" s="10"/>
-      <c r="P108" s="10"/>
-      <c r="Q108" s="10"/>
-      <c r="R108" s="10"/>
-      <c r="S108" s="10"/>
-      <c r="T108" s="10"/>
-      <c r="U108" s="10"/>
-      <c r="V108" s="10"/>
-      <c r="W108" s="10"/>
-      <c r="X108" s="10"/>
-      <c r="Y108" s="15"/>
-      <c r="Z108" s="15"/>
-    </row>
-    <row r="109" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B109" s="48" t="s">
-        <v>392</v>
-      </c>
-      <c r="C109" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D109" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="E109" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F109" s="48"/>
-      <c r="G109" s="48"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="48"/>
-      <c r="J109" s="48"/>
-      <c r="K109" s="48"/>
-      <c r="L109" s="48"/>
-      <c r="M109" s="48"/>
-      <c r="N109" s="48"/>
-      <c r="O109" s="48"/>
-      <c r="P109" s="48"/>
-      <c r="Q109" s="48"/>
-      <c r="R109" s="48"/>
-      <c r="S109" s="48"/>
-      <c r="T109" s="48"/>
-      <c r="U109" s="48"/>
-      <c r="V109" s="48"/>
-      <c r="W109" s="48"/>
-      <c r="X109" s="48"/>
-    </row>
-    <row r="110" spans="1:26" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="D110" s="49" t="str">
-        <f>"Run " &amp; B109</f>
-        <v>Run LEDs</v>
-      </c>
-      <c r="E110" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="G110" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="I110" s="49">
-        <v>1</v>
-      </c>
-      <c r="K110" s="49">
-        <v>0</v>
-      </c>
-      <c r="L110" s="49">
-        <v>1</v>
-      </c>
-      <c r="M110" s="49">
-        <v>1</v>
-      </c>
-      <c r="N110" s="49">
-        <v>1</v>
-      </c>
-      <c r="P110" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="R110" s="49" t="s">
-        <v>271</v>
-      </c>
+      <c r="H110" s="10"/>
+      <c r="I110" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="10"/>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="10"/>
+      <c r="R110" s="10"/>
+      <c r="S110" s="10"/>
+      <c r="T110" s="10"/>
+      <c r="U110" s="10"/>
+      <c r="V110" s="10"/>
+      <c r="W110" s="10"/>
+      <c r="X110" s="10"/>
+      <c r="Y110" s="15"/>
+      <c r="Z110" s="15"/>
     </row>
     <row r="111" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
@@ -10258,11 +10326,11 @@
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="10" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="E111" s="10" t="str">
-        <f>LOWER(SUBSTITUTE(D111," ","_"))</f>
-        <v>option_1</v>
+        <f t="shared" si="17"/>
+        <v>option_1_cost_1_multiplier</v>
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="10" t="s">
@@ -10270,7 +10338,7 @@
       </c>
       <c r="H111" s="10"/>
       <c r="I111" s="10" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="J111" s="10"/>
       <c r="K111" s="10"/>
@@ -10290,96 +10358,90 @@
       <c r="Y111" s="15"/>
       <c r="Z111" s="15"/>
     </row>
-    <row r="112" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="E112" s="10" t="str">
-        <f t="shared" ref="E112:E113" si="16">LOWER(SUBSTITUTE(D112," ","_"))</f>
-        <v>option_1_cost_1_value</v>
-      </c>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H112" s="10"/>
-      <c r="I112" s="51">
-        <v>0.12</v>
-      </c>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
-      <c r="L112" s="10"/>
-      <c r="M112" s="10"/>
-      <c r="N112" s="10"/>
-      <c r="O112" s="10"/>
-      <c r="P112" s="10"/>
-      <c r="Q112" s="10"/>
-      <c r="R112" s="10"/>
-      <c r="S112" s="10"/>
-      <c r="T112" s="10"/>
-      <c r="U112" s="10"/>
-      <c r="V112" s="10"/>
-      <c r="W112" s="10"/>
-      <c r="X112" s="10"/>
-      <c r="Y112" s="15"/>
-      <c r="Z112" s="15"/>
-    </row>
-    <row r="113" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
-      <c r="B113" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E113" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>option_1_cost_1_multiplier</v>
-      </c>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="J113" s="10"/>
-      <c r="K113" s="10"/>
-      <c r="L113" s="10"/>
-      <c r="M113" s="10"/>
-      <c r="N113" s="10"/>
-      <c r="O113" s="10"/>
-      <c r="P113" s="10"/>
-      <c r="Q113" s="10"/>
-      <c r="R113" s="10"/>
-      <c r="S113" s="10"/>
-      <c r="T113" s="10"/>
-      <c r="U113" s="10"/>
-      <c r="V113" s="10"/>
-      <c r="W113" s="10"/>
-      <c r="X113" s="10"/>
-      <c r="Y113" s="15"/>
-      <c r="Z113" s="15"/>
-    </row>
-    <row r="114" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B112" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="C112" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="D112" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="E112" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="F112" s="38"/>
+      <c r="G112" s="38"/>
+      <c r="H112" s="39"/>
+      <c r="I112" s="39"/>
+      <c r="J112" s="38"/>
+      <c r="K112" s="38"/>
+      <c r="L112" s="38"/>
+      <c r="M112" s="38"/>
+      <c r="N112" s="38"/>
+      <c r="O112" s="38"/>
+      <c r="P112" s="38"/>
+      <c r="Q112" s="38"/>
+      <c r="R112" s="38"/>
+      <c r="S112" s="38"/>
+      <c r="T112" s="38"/>
+      <c r="U112" s="38"/>
+      <c r="V112" s="38"/>
+      <c r="W112" s="38"/>
+      <c r="X112" s="38"/>
+    </row>
+    <row r="113" spans="1:24" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B113" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="D113" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="E113" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="F113" s="38"/>
+      <c r="G113" s="38"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="39"/>
+      <c r="J113" s="38"/>
+      <c r="K113" s="38"/>
+      <c r="L113" s="38"/>
+      <c r="M113" s="38"/>
+      <c r="N113" s="38"/>
+      <c r="O113" s="38"/>
+      <c r="P113" s="38"/>
+      <c r="Q113" s="38"/>
+      <c r="R113" s="38"/>
+      <c r="S113" s="38"/>
+      <c r="T113" s="38"/>
+      <c r="U113" s="38"/>
+      <c r="V113" s="38"/>
+      <c r="W113" s="38"/>
+      <c r="X113" s="38"/>
+    </row>
+    <row r="114" spans="1:24" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B114" s="38" t="s">
-        <v>337</v>
+        <v>238</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>338</v>
+        <v>237</v>
       </c>
       <c r="D114" s="38" t="s">
-        <v>338</v>
+        <v>237</v>
       </c>
       <c r="E114" s="38" t="s">
         <v>236</v>
@@ -10404,78 +10466,6 @@
       <c r="W114" s="38"/>
       <c r="X114" s="38"/>
     </row>
-    <row r="115" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B115" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="C115" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="D115" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="E115" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="F115" s="38"/>
-      <c r="G115" s="38"/>
-      <c r="H115" s="39"/>
-      <c r="I115" s="39"/>
-      <c r="J115" s="38"/>
-      <c r="K115" s="38"/>
-      <c r="L115" s="38"/>
-      <c r="M115" s="38"/>
-      <c r="N115" s="38"/>
-      <c r="O115" s="38"/>
-      <c r="P115" s="38"/>
-      <c r="Q115" s="38"/>
-      <c r="R115" s="38"/>
-      <c r="S115" s="38"/>
-      <c r="T115" s="38"/>
-      <c r="U115" s="38"/>
-      <c r="V115" s="38"/>
-      <c r="W115" s="38"/>
-      <c r="X115" s="38"/>
-    </row>
-    <row r="116" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B116" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="C116" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="D116" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="E116" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="F116" s="38"/>
-      <c r="G116" s="38"/>
-      <c r="H116" s="39"/>
-      <c r="I116" s="39"/>
-      <c r="J116" s="38"/>
-      <c r="K116" s="38"/>
-      <c r="L116" s="38"/>
-      <c r="M116" s="38"/>
-      <c r="N116" s="38"/>
-      <c r="O116" s="38"/>
-      <c r="P116" s="38"/>
-      <c r="Q116" s="38"/>
-      <c r="R116" s="38"/>
-      <c r="S116" s="38"/>
-      <c r="T116" s="38"/>
-      <c r="U116" s="38"/>
-      <c r="V116" s="38"/>
-      <c r="W116" s="38"/>
-      <c r="X116" s="38"/>
-    </row>
   </sheetData>
   <autoFilter ref="A2:AA3"/>
   <mergeCells count="1">
@@ -10483,6 +10473,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11078,7 +11069,7 @@
     </row>
     <row r="26" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="D26" s="14" t="str">
         <f>"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A26," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
@@ -11204,7 +11195,7 @@
     </row>
     <row r="31" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
@@ -11232,7 +11223,7 @@
     </row>
     <row r="32" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B32" s="44"/>
       <c r="C32" s="44"/>
@@ -11260,7 +11251,7 @@
     </row>
     <row r="33" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
@@ -11288,7 +11279,7 @@
     </row>
     <row r="34" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B34" s="44"/>
       <c r="C34" s="44"/>
